--- a/設計書/sleepleader-画面設計書.xlsx
+++ b/設計書/sleepleader-画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\SleepLeader\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4408AE5C-B0C6-448F-A6AB-5114BFD852C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FBA44-A149-4EC7-A0FC-7EC3FB77B788}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7135" yWindow="1230" windowWidth="12065" windowHeight="8970" firstSheet="2" activeTab="4" xr2:uid="{17086225-CE09-4162-9671-057735305FFA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="3" activeTab="3" xr2:uid="{17086225-CE09-4162-9671-057735305FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="109">
   <si>
     <t>画面一覧</t>
     <rPh sb="0" eb="2">
@@ -997,6 +997,10 @@
   </si>
   <si>
     <t>スヌーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スワイプボタン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1341,7 +1345,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1587,25 +1591,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,6 +1675,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,32 +1726,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1758,20 +1753,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3003,8 +3010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2503630" y="1499178"/>
-          <a:ext cx="4868141" cy="5786004"/>
+          <a:off x="2500744" y="1497735"/>
+          <a:ext cx="4858760" cy="5765078"/>
           <a:chOff x="2555585" y="1481860"/>
           <a:chExt cx="4868141" cy="5786004"/>
         </a:xfrm>
@@ -3062,9 +3069,19 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:blipFill dpi="0" rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </a:blipFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -3153,10 +3170,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
@@ -3165,10 +3179,7 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:latin typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
@@ -3226,156 +3237,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28864</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371764</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163946</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60FF7A2-C26B-4DE9-9241-DFAB9D088ADB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4560455" y="3423228"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1400463</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>167410</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>135083</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BF98C2-E73C-4058-9AB7-396A05A48E6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5932054" y="3434773"/>
-          <a:ext cx="302492" cy="302492"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>738909</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1027545</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D971BC-E0AD-4C29-A2E3-339D634A5A1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5270500" y="3434773"/>
-          <a:ext cx="288636" cy="288636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3532,6 +3393,288 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D76B18-9E12-40B0-83B2-EB63D70E17FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="3413125"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>833438</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1138238</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A018EB2F-CAF4-41C0-8C29-191A2611B744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5357813" y="3365501"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1484313</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60768ECC-FA32-4076-8988-44B0E18676B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6008688" y="3405188"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>492124</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="吹き出し: 線 (枠付き、強調線付き) 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AECA96-732A-4C4A-A1ED-B3D0151767DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9294812" y="1770063"/>
+          <a:ext cx="7350125" cy="3611563"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentBorderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29519"/>
+            <a:gd name="adj2" fmla="val -6821"/>
+            <a:gd name="adj3" fmla="val 83049"/>
+            <a:gd name="adj4" fmla="val -21918"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザーが楽しめるように</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Javascript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　や　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>css</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ホバー　を使う。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>万人ウケする色にするか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーマカラー選択をできるようにする。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3780,9 +3923,19 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:blipFill dpi="0" rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </a:blipFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -3865,15 +4018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>23090</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3888,13 +4041,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4554681" y="2534228"/>
+          <a:off x="4543136" y="3128819"/>
           <a:ext cx="1754909" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -3917,14 +4074,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144317</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144317</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3939,13 +4096,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4554682" y="3411681"/>
+          <a:off x="4554682" y="3937000"/>
           <a:ext cx="1720272" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -3967,15 +4128,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>773547</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:colOff>704274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>831274</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3990,7 +4151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4398820" y="2540000"/>
+          <a:off x="4329547" y="3215409"/>
           <a:ext cx="964045" cy="744682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4023,18 +4184,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4045,15 +4202,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>854363</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138544</xdr:rowOff>
+      <xdr:colOff>912090</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>282863</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:colOff>340590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4068,7 +4225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5385954" y="2557317"/>
+          <a:off x="5443681" y="3186545"/>
           <a:ext cx="964045" cy="744682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4101,18 +4258,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>00</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4123,15 +4276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>484908</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:colOff>623455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1177635</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>40409</xdr:rowOff>
+      <xdr:colOff>1056411</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4146,8 +4299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5016499" y="2453409"/>
-          <a:ext cx="692727" cy="854364"/>
+          <a:off x="5155046" y="3192318"/>
+          <a:ext cx="432956" cy="721591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4179,18 +4332,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4201,15 +4350,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
+      <xdr:colOff>40409</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>756228</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
+      <xdr:colOff>773546</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4224,7 +4373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4554682" y="3452092"/>
+          <a:off x="4572000" y="3971637"/>
           <a:ext cx="733137" cy="531090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4257,18 +4406,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>11</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4279,15 +4424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>917865</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>150091</xdr:rowOff>
+      <xdr:colOff>946728</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>132774</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:colOff>161637</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4302,7 +4447,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5449456" y="3417455"/>
+          <a:off x="5478319" y="3954319"/>
           <a:ext cx="750454" cy="623455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4335,18 +4480,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>01</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4357,15 +4498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57728</xdr:rowOff>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>750456</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:colOff>790865</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4380,7 +4521,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4548910" y="1974273"/>
+          <a:off x="4589319" y="2563091"/>
           <a:ext cx="733137" cy="531090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4413,9 +4554,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>09</a:t>
@@ -4428,15 +4567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>900546</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
+      <xdr:colOff>929410</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>115455</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>144318</xdr:rowOff>
+      <xdr:colOff>144319</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4451,7 +4590,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5432137" y="1939636"/>
+          <a:off x="5461001" y="2557317"/>
           <a:ext cx="750454" cy="623455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4484,18 +4623,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>59</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4776,13 +4911,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>690994</xdr:colOff>
+      <xdr:colOff>662131</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>84860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>398316</xdr:colOff>
+      <xdr:colOff>369453</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4799,7 +4934,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2503630" y="1499178"/>
+          <a:off x="2474767" y="1499178"/>
           <a:ext cx="4868141" cy="5786004"/>
           <a:chOff x="2555585" y="1481860"/>
           <a:chExt cx="4868141" cy="5786004"/>
@@ -4852,15 +4987,18 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4023591" y="1691409"/>
+            <a:off x="4012046" y="1662545"/>
             <a:ext cx="2845955" cy="5345545"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </a:blipFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -5037,9 +5175,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -5066,9 +5202,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
@@ -5077,9 +5211,7 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:latin typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
@@ -5137,73 +5269,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>790863</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438727</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA83D64D-F4C7-4FB9-B245-46D637E325F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4416136" y="3209636"/>
-          <a:ext cx="2089727" cy="236682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>～　焚火の音　～</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5388,8 +5453,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2503630" y="1499178"/>
-          <a:ext cx="4868141" cy="5786004"/>
+          <a:off x="2507389" y="1517302"/>
+          <a:ext cx="4875927" cy="5873803"/>
           <a:chOff x="2555585" y="1481860"/>
           <a:chExt cx="4868141" cy="5786004"/>
         </a:xfrm>
@@ -5448,9 +5513,7 @@
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="10000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:ln>
             <a:solidFill>
@@ -5539,15 +5602,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>404090</xdr:colOff>
+      <xdr:colOff>417286</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>11546</xdr:rowOff>
+      <xdr:rowOff>21071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>715818</xdr:colOff>
+      <xdr:colOff>718993</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:rowOff>124979</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5562,8 +5625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4029363" y="2609273"/>
-          <a:ext cx="2753591" cy="606136"/>
+          <a:off x="4045857" y="2624571"/>
+          <a:ext cx="2741922" cy="607372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5667,7 +5730,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>421409</xdr:colOff>
+      <xdr:colOff>417286</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:from>
@@ -5690,8 +5753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4046682" y="3815773"/>
-          <a:ext cx="2730500" cy="606136"/>
+          <a:off x="4045857" y="3824432"/>
+          <a:ext cx="2732975" cy="607373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5801,7 +5864,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>715818</xdr:colOff>
+      <xdr:colOff>717550</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>19627</xdr:rowOff>
     </xdr:to>
@@ -5818,8 +5881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4046682" y="5024582"/>
-          <a:ext cx="2736272" cy="606136"/>
+          <a:off x="4040909" y="5048827"/>
+          <a:ext cx="2734541" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6970,16 +7033,16 @@
       <c r="U3" s="50"/>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
-      <c r="X3" s="114" t="s">
+      <c r="X3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="116">
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="110">
         <v>43711</v>
       </c>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="115"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="109"/>
       <c r="AD3" s="50"/>
       <c r="AE3" s="50"/>
       <c r="AF3" s="52"/>
@@ -7094,20 +7157,20 @@
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="120"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="114"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -7125,79 +7188,79 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="49"/>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="127" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="129"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="123"/>
       <c r="R8" s="50"/>
       <c r="S8" s="50"/>
       <c r="T8" s="50"/>
       <c r="U8" s="50"/>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
-      <c r="X8" s="114" t="s">
+      <c r="X8" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="114" t="s">
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="114" t="s">
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="115"/>
+      <c r="AC8" s="109"/>
       <c r="AE8" s="50"/>
       <c r="AF8" s="52"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="49"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="132"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
       <c r="W9" s="50"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="134"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="133" t="s">
+      <c r="X9" s="127"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="134"/>
+      <c r="AC9" s="128"/>
       <c r="AE9" s="50"/>
       <c r="AF9" s="52"/>
     </row>
@@ -7225,12 +7288,12 @@
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
       <c r="W10" s="50"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="136"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="136"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="136"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="130"/>
       <c r="AE10" s="50"/>
       <c r="AF10" s="52"/>
     </row>
@@ -7258,12 +7321,12 @@
       <c r="U11" s="58"/>
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="143"/>
-      <c r="AA11" s="144"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="138"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="132"/>
       <c r="AE11" s="58"/>
       <c r="AF11" s="52"/>
     </row>
@@ -7303,106 +7366,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="49"/>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
       <c r="AF13" s="52"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="49"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="113"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="139"/>
       <c r="AF14" s="52"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="49"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="113"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="139"/>
       <c r="AF15" s="52"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -7545,630 +7608,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="49"/>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="107" t="s">
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="107" t="s">
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="107" t="s">
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="141"/>
+      <c r="W20" s="141"/>
+      <c r="X20" s="141"/>
+      <c r="Y20" s="141"/>
+      <c r="Z20" s="141"/>
+      <c r="AA20" s="141"/>
+      <c r="AB20" s="142"/>
+      <c r="AC20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="109"/>
+      <c r="AD20" s="141"/>
+      <c r="AE20" s="142"/>
       <c r="AF20" s="52"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="49"/>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110">
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="143">
         <v>43578</v>
       </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="107" t="s">
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="107" t="s">
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="141"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="141"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="142"/>
+      <c r="AC21" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="109"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="142"/>
       <c r="AF21" s="52"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="49"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="108"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="109"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="141"/>
+      <c r="W22" s="141"/>
+      <c r="X22" s="141"/>
+      <c r="Y22" s="141"/>
+      <c r="Z22" s="141"/>
+      <c r="AA22" s="141"/>
+      <c r="AB22" s="142"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="141"/>
+      <c r="AE22" s="142"/>
       <c r="AF22" s="52"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="49"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="109"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="142"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="142"/>
       <c r="AF23" s="52"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="49"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="109"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="141"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="141"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="141"/>
+      <c r="AA24" s="141"/>
+      <c r="AB24" s="142"/>
+      <c r="AC24" s="140"/>
+      <c r="AD24" s="141"/>
+      <c r="AE24" s="142"/>
       <c r="AF24" s="52"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="49"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="108"/>
-      <c r="Z25" s="108"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="108"/>
-      <c r="AE25" s="109"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="141"/>
+      <c r="P25" s="141"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="141"/>
+      <c r="Y25" s="141"/>
+      <c r="Z25" s="141"/>
+      <c r="AA25" s="141"/>
+      <c r="AB25" s="142"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="141"/>
+      <c r="AE25" s="142"/>
       <c r="AF25" s="52"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="49"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
-      <c r="Z26" s="108"/>
-      <c r="AA26" s="108"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="108"/>
-      <c r="AE26" s="109"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="141"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="142"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="142"/>
       <c r="AF26" s="52"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="49"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="108"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="108"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="108"/>
-      <c r="AA27" s="108"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="107"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="109"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="141"/>
+      <c r="Y27" s="141"/>
+      <c r="Z27" s="141"/>
+      <c r="AA27" s="141"/>
+      <c r="AB27" s="142"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="141"/>
+      <c r="AE27" s="142"/>
       <c r="AF27" s="52"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="49"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="108"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="108"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="108"/>
-      <c r="Z28" s="108"/>
-      <c r="AA28" s="108"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="109"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="141"/>
+      <c r="Z28" s="141"/>
+      <c r="AA28" s="141"/>
+      <c r="AB28" s="142"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="141"/>
+      <c r="AE28" s="142"/>
       <c r="AF28" s="52"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="49"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
-      <c r="Z29" s="108"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="109"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
+      <c r="W29" s="141"/>
+      <c r="X29" s="141"/>
+      <c r="Y29" s="141"/>
+      <c r="Z29" s="141"/>
+      <c r="AA29" s="141"/>
+      <c r="AB29" s="142"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="141"/>
+      <c r="AE29" s="142"/>
       <c r="AF29" s="52"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="49"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="108"/>
-      <c r="AA30" s="108"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="107"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="109"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="141"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="141"/>
+      <c r="W30" s="141"/>
+      <c r="X30" s="141"/>
+      <c r="Y30" s="141"/>
+      <c r="Z30" s="141"/>
+      <c r="AA30" s="141"/>
+      <c r="AB30" s="142"/>
+      <c r="AC30" s="140"/>
+      <c r="AD30" s="141"/>
+      <c r="AE30" s="142"/>
       <c r="AF30" s="52"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="49"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="108"/>
-      <c r="V31" s="108"/>
-      <c r="W31" s="108"/>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="108"/>
-      <c r="Z31" s="108"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="107"/>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="109"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
+      <c r="U31" s="141"/>
+      <c r="V31" s="141"/>
+      <c r="W31" s="141"/>
+      <c r="X31" s="141"/>
+      <c r="Y31" s="141"/>
+      <c r="Z31" s="141"/>
+      <c r="AA31" s="141"/>
+      <c r="AB31" s="142"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="141"/>
+      <c r="AE31" s="142"/>
       <c r="AF31" s="52"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="49"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="109"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="141"/>
+      <c r="W32" s="141"/>
+      <c r="X32" s="141"/>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="141"/>
+      <c r="AA32" s="141"/>
+      <c r="AB32" s="142"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="142"/>
       <c r="AF32" s="52"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="49"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="108"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="108"/>
-      <c r="U33" s="108"/>
-      <c r="V33" s="108"/>
-      <c r="W33" s="108"/>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="108"/>
-      <c r="Z33" s="108"/>
-      <c r="AA33" s="108"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="107"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="109"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="141"/>
+      <c r="Y33" s="141"/>
+      <c r="Z33" s="141"/>
+      <c r="AA33" s="141"/>
+      <c r="AB33" s="142"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="141"/>
+      <c r="AE33" s="142"/>
       <c r="AF33" s="52"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="49"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="108"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="108"/>
-      <c r="U34" s="108"/>
-      <c r="V34" s="108"/>
-      <c r="W34" s="108"/>
-      <c r="X34" s="108"/>
-      <c r="Y34" s="108"/>
-      <c r="Z34" s="108"/>
-      <c r="AA34" s="108"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="108"/>
-      <c r="AE34" s="109"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="141"/>
+      <c r="U34" s="141"/>
+      <c r="V34" s="141"/>
+      <c r="W34" s="141"/>
+      <c r="X34" s="141"/>
+      <c r="Y34" s="141"/>
+      <c r="Z34" s="141"/>
+      <c r="AA34" s="141"/>
+      <c r="AB34" s="142"/>
+      <c r="AC34" s="140"/>
+      <c r="AD34" s="141"/>
+      <c r="AE34" s="142"/>
       <c r="AF34" s="52"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="49"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="108"/>
-      <c r="AE35" s="109"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="141"/>
+      <c r="P35" s="141"/>
+      <c r="Q35" s="141"/>
+      <c r="R35" s="141"/>
+      <c r="S35" s="141"/>
+      <c r="T35" s="141"/>
+      <c r="U35" s="141"/>
+      <c r="V35" s="141"/>
+      <c r="W35" s="141"/>
+      <c r="X35" s="141"/>
+      <c r="Y35" s="141"/>
+      <c r="Z35" s="141"/>
+      <c r="AA35" s="141"/>
+      <c r="AB35" s="142"/>
+      <c r="AC35" s="140"/>
+      <c r="AD35" s="141"/>
+      <c r="AE35" s="142"/>
       <c r="AF35" s="52"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="49"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="108"/>
-      <c r="U36" s="108"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="108"/>
-      <c r="Z36" s="108"/>
-      <c r="AA36" s="108"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="108"/>
-      <c r="AE36" s="109"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="141"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="141"/>
+      <c r="U36" s="141"/>
+      <c r="V36" s="141"/>
+      <c r="W36" s="141"/>
+      <c r="X36" s="141"/>
+      <c r="Y36" s="141"/>
+      <c r="Z36" s="141"/>
+      <c r="AA36" s="141"/>
+      <c r="AB36" s="142"/>
+      <c r="AC36" s="140"/>
+      <c r="AD36" s="141"/>
+      <c r="AE36" s="142"/>
       <c r="AF36" s="52"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="49"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="108"/>
-      <c r="V37" s="108"/>
-      <c r="W37" s="108"/>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="108"/>
-      <c r="Z37" s="108"/>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="108"/>
-      <c r="AE37" s="109"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="141"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="141"/>
+      <c r="P37" s="141"/>
+      <c r="Q37" s="141"/>
+      <c r="R37" s="141"/>
+      <c r="S37" s="141"/>
+      <c r="T37" s="141"/>
+      <c r="U37" s="141"/>
+      <c r="V37" s="141"/>
+      <c r="W37" s="141"/>
+      <c r="X37" s="141"/>
+      <c r="Y37" s="141"/>
+      <c r="Z37" s="141"/>
+      <c r="AA37" s="141"/>
+      <c r="AB37" s="142"/>
+      <c r="AC37" s="140"/>
+      <c r="AD37" s="141"/>
+      <c r="AE37" s="142"/>
       <c r="AF37" s="52"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -8207,78 +8270,6 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="J37:AB37"/>
@@ -8291,6 +8282,78 @@
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="J36:AB36"/>
     <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -8840,19 +8903,19 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="155"/>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
@@ -8861,17 +8924,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="150"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
@@ -8880,17 +8943,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="151"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="155"/>
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
@@ -8899,36 +8962,36 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="150" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="151"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
@@ -8951,11 +9014,11 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -9125,9 +9188,9 @@
       <c r="A22" s="95"/>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
       <c r="I22" s="96"/>
@@ -9250,8 +9313,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -9389,19 +9452,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -9410,15 +9473,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -9431,15 +9494,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -9452,15 +9515,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -9475,15 +9538,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -9494,15 +9557,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="157"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -9513,32 +9576,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="170"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -9996,19 +10059,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="166"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="163"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -10039,180 +10102,180 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="167" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="120"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="104"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="167" t="s">
+      <c r="I46" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="119"/>
-      <c r="K46" s="120"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="167" t="s">
+      <c r="B47" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="120"/>
-      <c r="D47" s="167" t="s">
+      <c r="C47" s="114"/>
+      <c r="D47" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="120"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="104"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="167" t="s">
+      <c r="I47" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="119"/>
-      <c r="K47" s="120"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="167" t="s">
+      <c r="C48" s="114"/>
+      <c r="D48" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="120"/>
+      <c r="E48" s="114"/>
       <c r="F48" s="104"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="167" t="s">
+      <c r="I48" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="119"/>
-      <c r="K48" s="120"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="167" t="s">
+      <c r="C49" s="114"/>
+      <c r="D49" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="120"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="104"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="167" t="s">
+      <c r="I49" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="119"/>
-      <c r="K49" s="120"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="114"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="120"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="104"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="114"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="169"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="159"/>
       <c r="F51" s="91"/>
       <c r="G51" s="91"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="169"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="159"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="159"/>
       <c r="F52" s="91"/>
       <c r="G52" s="91"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="169"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="159"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="169"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="159"/>
       <c r="F53" s="91"/>
       <c r="G53" s="91"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="169"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="159"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="169"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="159"/>
       <c r="F54" s="91"/>
       <c r="G54" s="91"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="169"/>
+      <c r="I54" s="158"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="159"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="169"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="159"/>
       <c r="F55" s="91"/>
       <c r="G55" s="91"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="169"/>
+      <c r="I55" s="158"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="159"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="166"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="163"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -10271,14 +10334,14 @@
     <row r="61" spans="1:11">
       <c r="A61" s="89"/>
       <c r="B61" s="90"/>
-      <c r="C61" s="171" t="s">
+      <c r="C61" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
       <c r="I61" s="90"/>
       <c r="J61" s="90"/>
       <c r="K61" s="78"/>
@@ -10313,15 +10376,15 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="89"/>
-      <c r="B64" s="171" t="s">
+      <c r="B64" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="171"/>
-      <c r="D64" s="171"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="171"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="171"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
       <c r="I64" s="90"/>
       <c r="J64" s="90"/>
       <c r="K64" s="78"/>
@@ -10356,15 +10419,15 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="89"/>
-      <c r="B67" s="172" t="s">
+      <c r="B67" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="172"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="172"/>
-      <c r="G67" s="172"/>
-      <c r="H67" s="172"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
       <c r="K67" s="78"/>
@@ -10539,11 +10602,36 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="A56:K56"/>
     <mergeCell ref="B53:C53"/>
@@ -10552,36 +10640,11 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10597,8 +10660,8 @@
   </sheetPr>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -10736,19 +10799,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="65" t="s">
@@ -10757,15 +10820,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -10778,15 +10841,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -10799,15 +10862,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -10822,15 +10885,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -10841,15 +10904,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="157"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -10863,15 +10926,15 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
       <c r="N7" s="36" t="s">
@@ -10879,19 +10942,19 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="170"/>
       <c r="N8" s="36" t="s">
         <v>103</v>
       </c>
@@ -11358,19 +11421,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="166"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="163"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -11403,168 +11466,168 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="167" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="120"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="167" t="s">
+      <c r="I46" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="119"/>
-      <c r="K46" s="120"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="167"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="120"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="105"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="120"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="167" t="s">
+      <c r="C48" s="114"/>
+      <c r="D48" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="120"/>
+      <c r="E48" s="114"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="167" t="s">
+      <c r="I48" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="119"/>
-      <c r="K48" s="120"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="167"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="120"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="120"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="114"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="120"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="114"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="169"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="159"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="169"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="159"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="159"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="169"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="159"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="169"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="159"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="169"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="159"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="169"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="159"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="169"/>
+      <c r="I54" s="158"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="159"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="169"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="159"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="169"/>
+      <c r="I55" s="158"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="159"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="166"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="163"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -11884,6 +11947,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -11894,36 +11987,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11939,8 +12002,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -12078,19 +12141,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -12099,15 +12162,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -12120,15 +12183,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -12141,15 +12204,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -12164,15 +12227,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -12183,15 +12246,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="157"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -12202,32 +12265,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="170"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -12685,19 +12748,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="166"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="163"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -12730,166 +12793,170 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="167" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="120"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="167" t="s">
+      <c r="I46" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="119"/>
-      <c r="K46" s="120"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="167"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="105"/>
+      <c r="B47" s="164" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="114"/>
+      <c r="D47" s="164" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="114"/>
+      <c r="F47" s="107"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="120"/>
+      <c r="I47" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="167" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="120"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="114"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="167" t="s">
+      <c r="I48" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="119"/>
-      <c r="K48" s="120"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="167"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="120"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="120"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="114"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="120"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="114"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="169"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="159"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="169"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="159"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="159"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="169"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="159"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="169"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="159"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="169"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="159"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="169"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="159"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="169"/>
+      <c r="I54" s="158"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="159"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="169"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="159"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="169"/>
+      <c r="I55" s="158"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="159"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="166"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="163"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -13209,6 +13276,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -13219,36 +13316,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13264,8 +13331,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="43" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -13403,19 +13470,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="160"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -13424,15 +13491,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -13445,15 +13512,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -13466,15 +13533,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -13489,15 +13556,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -13508,15 +13575,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="157"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -13527,32 +13594,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="170"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -14010,19 +14077,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="166"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="163"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -14055,162 +14122,162 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="167" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="120"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="167" t="s">
+      <c r="I46" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="119"/>
-      <c r="K46" s="120"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="167"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="120"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="105"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="120"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="167"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="120"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="114"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="120"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="167"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="120"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="120"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="114"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="120"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="114"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="169"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="159"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="169"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="159"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="159"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="169"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="159"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="169"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="159"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="169"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="159"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="169"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="159"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="169"/>
+      <c r="I54" s="158"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="159"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="169"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="159"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="169"/>
+      <c r="I55" s="158"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="159"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="166"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="163"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -14530,6 +14597,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -14540,36 +14637,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/設計書/sleepleader-画面設計書.xlsx
+++ b/設計書/sleepleader-画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\SleepLeader\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FBA44-A149-4EC7-A0FC-7EC3FB77B788}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66784E86-5757-4377-BAB5-B9744926D5F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="3" activeTab="3" xr2:uid="{17086225-CE09-4162-9671-057735305FFA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="3" activeTab="6" xr2:uid="{17086225-CE09-4162-9671-057735305FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="GU4ミュージック画面" sheetId="25" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'GU1　TOP画面'!$A$1:$K$80</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">GU2アラームセット画面!$A$1:$K$80</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">GU3アラームストップ画面!$A$1:$K$80</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">GU4ミュージック画面!$A$1:$K$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'GU1　TOP画面'!$A$1:$L$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">GU2アラームセット画面!$A$1:$L$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">GU3アラームストップ画面!$A$1:$L$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">GU4ミュージック画面!$A$1:$L$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -1595,6 +1595,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,27 +1696,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,20 +1726,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1753,32 +1765,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3010,8 +3010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2500744" y="1497735"/>
-          <a:ext cx="4858760" cy="5765078"/>
+          <a:off x="2494394" y="1481860"/>
+          <a:ext cx="4850822" cy="5706340"/>
           <a:chOff x="2555585" y="1481860"/>
           <a:chExt cx="4868141" cy="5786004"/>
         </a:xfrm>
@@ -3545,138 +3545,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>492124</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="吹き出し: 線 (枠付き、強調線付き) 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AECA96-732A-4C4A-A1ED-B3D0151767DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9294812" y="1770063"/>
-          <a:ext cx="7350125" cy="3611563"/>
-        </a:xfrm>
-        <a:prstGeom prst="accentBorderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 29519"/>
-            <a:gd name="adj2" fmla="val -6821"/>
-            <a:gd name="adj3" fmla="val 83049"/>
-            <a:gd name="adj4" fmla="val -21918"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザーが楽しめるように</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Javascript</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　や　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>css</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ホバー　を使う。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>万人ウケする色にするか</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>テーマカラー選択をできるようにする。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3864,8 +3732,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2503630" y="1499178"/>
-          <a:ext cx="4868141" cy="5786004"/>
+          <a:off x="2494394" y="1481860"/>
+          <a:ext cx="4850822" cy="5706340"/>
           <a:chOff x="2555585" y="1481860"/>
           <a:chExt cx="4868141" cy="5786004"/>
         </a:xfrm>
@@ -4934,8 +4802,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2474767" y="1499178"/>
-          <a:ext cx="4868141" cy="5786004"/>
+          <a:off x="2465531" y="1481860"/>
+          <a:ext cx="4850822" cy="5706340"/>
           <a:chOff x="2555585" y="1481860"/>
           <a:chExt cx="4868141" cy="5786004"/>
         </a:xfrm>
@@ -5453,8 +5321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2507389" y="1517302"/>
-          <a:ext cx="4875927" cy="5873803"/>
+          <a:off x="2494394" y="1481860"/>
+          <a:ext cx="4850822" cy="5706340"/>
           <a:chOff x="2555585" y="1481860"/>
           <a:chExt cx="4868141" cy="5786004"/>
         </a:xfrm>
@@ -7033,16 +6901,16 @@
       <c r="U3" s="50"/>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
-      <c r="X3" s="108" t="s">
+      <c r="X3" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110">
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="117">
         <v>43711</v>
       </c>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="109"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="116"/>
       <c r="AD3" s="50"/>
       <c r="AE3" s="50"/>
       <c r="AF3" s="52"/>
@@ -7157,20 +7025,20 @@
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="114"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="121"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -7188,79 +7056,79 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="49"/>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="121" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="123"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="130"/>
       <c r="R8" s="50"/>
       <c r="S8" s="50"/>
       <c r="T8" s="50"/>
       <c r="U8" s="50"/>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
-      <c r="X8" s="108" t="s">
+      <c r="X8" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="108" t="s">
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="108" t="s">
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="109"/>
+      <c r="AC8" s="116"/>
       <c r="AE8" s="50"/>
       <c r="AF8" s="52"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="49"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="133"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
       <c r="W9" s="50"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="134"/>
-      <c r="AB9" s="127" t="s">
+      <c r="X9" s="134"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="128"/>
+      <c r="AC9" s="135"/>
       <c r="AE9" s="50"/>
       <c r="AF9" s="52"/>
     </row>
@@ -7288,12 +7156,12 @@
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
       <c r="W10" s="50"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="130"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="136"/>
+      <c r="AC10" s="137"/>
       <c r="AE10" s="50"/>
       <c r="AF10" s="52"/>
     </row>
@@ -7321,12 +7189,12 @@
       <c r="U11" s="58"/>
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="132"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="139"/>
       <c r="AE11" s="58"/>
       <c r="AF11" s="52"/>
     </row>
@@ -7366,106 +7234,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="49"/>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="139"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
       <c r="AF13" s="52"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="49"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="139"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114"/>
       <c r="AF14" s="52"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="49"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
       <c r="AF15" s="52"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -7608,630 +7476,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="49"/>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="140" t="s">
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="140" t="s">
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="141"/>
-      <c r="AA20" s="141"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="140" t="s">
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="142"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="110"/>
       <c r="AF20" s="52"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="49"/>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="143">
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111">
         <v>43578</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="140" t="s">
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
-      <c r="W21" s="141"/>
-      <c r="X21" s="141"/>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="142"/>
-      <c r="AC21" s="140" t="s">
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="142"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
       <c r="AF21" s="52"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="49"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
-      <c r="W22" s="141"/>
-      <c r="X22" s="141"/>
-      <c r="Y22" s="141"/>
-      <c r="Z22" s="141"/>
-      <c r="AA22" s="141"/>
-      <c r="AB22" s="142"/>
-      <c r="AC22" s="140"/>
-      <c r="AD22" s="141"/>
-      <c r="AE22" s="142"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="110"/>
       <c r="AF22" s="52"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="49"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
-      <c r="W23" s="141"/>
-      <c r="X23" s="141"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="142"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="110"/>
       <c r="AF23" s="52"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="49"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="141"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
-      <c r="W24" s="141"/>
-      <c r="X24" s="141"/>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="141"/>
-      <c r="AA24" s="141"/>
-      <c r="AB24" s="142"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="142"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="110"/>
       <c r="AF24" s="52"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="49"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="141"/>
-      <c r="AA25" s="141"/>
-      <c r="AB25" s="142"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="142"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="110"/>
       <c r="AF25" s="52"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="49"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="141"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="141"/>
-      <c r="Z26" s="141"/>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="142"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="142"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="110"/>
       <c r="AF26" s="52"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="49"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="142"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="142"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="110"/>
       <c r="AF27" s="52"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="49"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="141"/>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="141"/>
-      <c r="Z28" s="141"/>
-      <c r="AA28" s="141"/>
-      <c r="AB28" s="142"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="141"/>
-      <c r="AE28" s="142"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="110"/>
       <c r="AF28" s="52"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="49"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="141"/>
-      <c r="T29" s="141"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="141"/>
-      <c r="W29" s="141"/>
-      <c r="X29" s="141"/>
-      <c r="Y29" s="141"/>
-      <c r="Z29" s="141"/>
-      <c r="AA29" s="141"/>
-      <c r="AB29" s="142"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="141"/>
-      <c r="AE29" s="142"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="110"/>
       <c r="AF29" s="52"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="49"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="141"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="141"/>
-      <c r="W30" s="141"/>
-      <c r="X30" s="141"/>
-      <c r="Y30" s="141"/>
-      <c r="Z30" s="141"/>
-      <c r="AA30" s="141"/>
-      <c r="AB30" s="142"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="141"/>
-      <c r="AE30" s="142"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="110"/>
       <c r="AF30" s="52"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="49"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="141"/>
-      <c r="U31" s="141"/>
-      <c r="V31" s="141"/>
-      <c r="W31" s="141"/>
-      <c r="X31" s="141"/>
-      <c r="Y31" s="141"/>
-      <c r="Z31" s="141"/>
-      <c r="AA31" s="141"/>
-      <c r="AB31" s="142"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="141"/>
-      <c r="AE31" s="142"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="110"/>
       <c r="AF31" s="52"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="49"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="141"/>
-      <c r="U32" s="141"/>
-      <c r="V32" s="141"/>
-      <c r="W32" s="141"/>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="141"/>
-      <c r="Z32" s="141"/>
-      <c r="AA32" s="141"/>
-      <c r="AB32" s="142"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="141"/>
-      <c r="AE32" s="142"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="110"/>
       <c r="AF32" s="52"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="49"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="141"/>
-      <c r="W33" s="141"/>
-      <c r="X33" s="141"/>
-      <c r="Y33" s="141"/>
-      <c r="Z33" s="141"/>
-      <c r="AA33" s="141"/>
-      <c r="AB33" s="142"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="141"/>
-      <c r="AE33" s="142"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="110"/>
       <c r="AF33" s="52"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="49"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="141"/>
-      <c r="S34" s="141"/>
-      <c r="T34" s="141"/>
-      <c r="U34" s="141"/>
-      <c r="V34" s="141"/>
-      <c r="W34" s="141"/>
-      <c r="X34" s="141"/>
-      <c r="Y34" s="141"/>
-      <c r="Z34" s="141"/>
-      <c r="AA34" s="141"/>
-      <c r="AB34" s="142"/>
-      <c r="AC34" s="140"/>
-      <c r="AD34" s="141"/>
-      <c r="AE34" s="142"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="109"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="109"/>
+      <c r="AE34" s="110"/>
       <c r="AF34" s="52"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="49"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="141"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="141"/>
-      <c r="R35" s="141"/>
-      <c r="S35" s="141"/>
-      <c r="T35" s="141"/>
-      <c r="U35" s="141"/>
-      <c r="V35" s="141"/>
-      <c r="W35" s="141"/>
-      <c r="X35" s="141"/>
-      <c r="Y35" s="141"/>
-      <c r="Z35" s="141"/>
-      <c r="AA35" s="141"/>
-      <c r="AB35" s="142"/>
-      <c r="AC35" s="140"/>
-      <c r="AD35" s="141"/>
-      <c r="AE35" s="142"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="110"/>
       <c r="AF35" s="52"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="49"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="141"/>
-      <c r="P36" s="141"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="141"/>
-      <c r="S36" s="141"/>
-      <c r="T36" s="141"/>
-      <c r="U36" s="141"/>
-      <c r="V36" s="141"/>
-      <c r="W36" s="141"/>
-      <c r="X36" s="141"/>
-      <c r="Y36" s="141"/>
-      <c r="Z36" s="141"/>
-      <c r="AA36" s="141"/>
-      <c r="AB36" s="142"/>
-      <c r="AC36" s="140"/>
-      <c r="AD36" s="141"/>
-      <c r="AE36" s="142"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="110"/>
       <c r="AF36" s="52"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="49"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="141"/>
-      <c r="N37" s="141"/>
-      <c r="O37" s="141"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="141"/>
-      <c r="R37" s="141"/>
-      <c r="S37" s="141"/>
-      <c r="T37" s="141"/>
-      <c r="U37" s="141"/>
-      <c r="V37" s="141"/>
-      <c r="W37" s="141"/>
-      <c r="X37" s="141"/>
-      <c r="Y37" s="141"/>
-      <c r="Z37" s="141"/>
-      <c r="AA37" s="141"/>
-      <c r="AB37" s="142"/>
-      <c r="AC37" s="140"/>
-      <c r="AD37" s="141"/>
-      <c r="AE37" s="142"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="109"/>
+      <c r="R37" s="109"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="109"/>
+      <c r="U37" s="109"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="109"/>
+      <c r="Z37" s="109"/>
+      <c r="AA37" s="109"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="109"/>
+      <c r="AE37" s="110"/>
       <c r="AF37" s="52"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -8270,6 +8138,78 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="J37:AB37"/>
@@ -8282,78 +8222,6 @@
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="J36:AB36"/>
     <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -9313,8 +9181,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -9452,19 +9320,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="161"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -9473,15 +9341,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -9494,15 +9362,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -9515,15 +9383,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -9538,15 +9406,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -9557,15 +9425,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -9576,32 +9444,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="161"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -10059,19 +9927,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="167"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -10102,180 +9970,180 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="164" t="s">
+      <c r="C46" s="121"/>
+      <c r="D46" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="104"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="121"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="164" t="s">
+      <c r="C47" s="121"/>
+      <c r="D47" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="114"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="104"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="164" t="s">
+      <c r="I47" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="164" t="s">
+      <c r="C48" s="121"/>
+      <c r="D48" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="114"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="104"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="164" t="s">
+      <c r="I48" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="121"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="164" t="s">
+      <c r="B49" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="164" t="s">
+      <c r="C49" s="121"/>
+      <c r="D49" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="114"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="104"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="164" t="s">
+      <c r="I49" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="121"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="104"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="121"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="159"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="170"/>
       <c r="F51" s="91"/>
       <c r="G51" s="91"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="170"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="170"/>
       <c r="F52" s="91"/>
       <c r="G52" s="91"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="170"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="170"/>
       <c r="F53" s="91"/>
       <c r="G53" s="91"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="170"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="170"/>
       <c r="F54" s="91"/>
       <c r="G54" s="91"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="170"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="170"/>
       <c r="F55" s="91"/>
       <c r="G55" s="91"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="159"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="170"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="167"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -10334,14 +10202,14 @@
     <row r="61" spans="1:11">
       <c r="A61" s="89"/>
       <c r="B61" s="90"/>
-      <c r="C61" s="156" t="s">
+      <c r="C61" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="172"/>
       <c r="I61" s="90"/>
       <c r="J61" s="90"/>
       <c r="K61" s="78"/>
@@ -10376,15 +10244,15 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="89"/>
-      <c r="B64" s="156" t="s">
+      <c r="B64" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
       <c r="I64" s="90"/>
       <c r="J64" s="90"/>
       <c r="K64" s="78"/>
@@ -10419,15 +10287,15 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="89"/>
-      <c r="B67" s="157" t="s">
+      <c r="B67" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
+      <c r="C67" s="173"/>
+      <c r="D67" s="173"/>
+      <c r="E67" s="173"/>
+      <c r="F67" s="173"/>
+      <c r="G67" s="173"/>
+      <c r="H67" s="173"/>
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
       <c r="K67" s="78"/>
@@ -10602,36 +10470,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="A56:K56"/>
     <mergeCell ref="B53:C53"/>
@@ -10640,15 +10483,40 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10660,8 +10528,8 @@
   </sheetPr>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:E47"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="25" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90:O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -10799,19 +10667,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="161"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="65" t="s">
@@ -10820,15 +10688,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -10841,15 +10709,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -10862,15 +10730,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -10885,15 +10753,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -10904,15 +10772,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -10926,15 +10794,15 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
       <c r="N7" s="36" t="s">
@@ -10942,19 +10810,19 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="161"/>
       <c r="N8" s="36" t="s">
         <v>103</v>
       </c>
@@ -11421,19 +11289,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="167"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -11466,168 +11334,168 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="164" t="s">
+      <c r="C46" s="121"/>
+      <c r="D46" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="121"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="164"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="114"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="105"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="164" t="s">
+      <c r="C48" s="121"/>
+      <c r="D48" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="114"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="164" t="s">
+      <c r="I48" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="121"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="121"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="121"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="159"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="170"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="170"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="170"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="170"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="170"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="170"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="170"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="170"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="170"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="159"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="170"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="167"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -11947,36 +11815,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -11987,10 +11825,40 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12002,7 +11870,7 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -12141,19 +12009,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="161"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -12162,15 +12030,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -12183,15 +12051,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -12204,15 +12072,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -12227,15 +12095,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -12246,15 +12114,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -12265,32 +12133,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="161"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -12748,19 +12616,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="167"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -12793,170 +12661,170 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="164" t="s">
+      <c r="C46" s="121"/>
+      <c r="D46" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="121"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="164" t="s">
+      <c r="C47" s="121"/>
+      <c r="D47" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="114"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="107"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="164" t="s">
+      <c r="I47" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="114"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="164" t="s">
+      <c r="I48" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="121"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="121"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="121"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="159"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="170"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="170"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="170"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="170"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="170"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="170"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="170"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="170"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="170"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="159"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="170"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="167"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -13276,36 +13144,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -13316,10 +13154,40 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13331,8 +13199,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView zoomScale="43" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="25" zoomScaleNormal="43" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -13470,19 +13338,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="161"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -13491,15 +13359,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -13512,15 +13380,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -13533,15 +13401,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -13556,15 +13424,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -13575,15 +13443,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -13594,32 +13462,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="161"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -14077,19 +13945,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="167"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -14122,162 +13990,162 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="164" t="s">
+      <c r="C46" s="121"/>
+      <c r="D46" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="121"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="164"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="114"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="105"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="114"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="121"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="121"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="121"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="159"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="170"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="170"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="170"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="170"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="170"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="170"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="170"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="170"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="170"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="159"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="170"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="167"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -14597,36 +14465,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -14637,10 +14475,40 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/設計書/sleepleader-画面設計書.xlsx
+++ b/設計書/sleepleader-画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\SleepLeader\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FBA44-A149-4EC7-A0FC-7EC3FB77B788}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF08282-D10F-41B5-8023-F83C7F8EDF70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="3" activeTab="3" xr2:uid="{17086225-CE09-4162-9671-057735305FFA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="6" activeTab="8" xr2:uid="{17086225-CE09-4162-9671-057735305FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -19,13 +19,17 @@
     <sheet name="GU1　TOP画面" sheetId="22" r:id="rId4"/>
     <sheet name="GU2アラームセット画面" sheetId="24" r:id="rId5"/>
     <sheet name="GU3アラームストップ画面" sheetId="26" r:id="rId6"/>
-    <sheet name="GU4ミュージック画面" sheetId="25" r:id="rId7"/>
+    <sheet name="GU3アラームストップ画面 (通学用)" sheetId="28" r:id="rId7"/>
+    <sheet name="GU4ミュージック画面" sheetId="25" r:id="rId8"/>
+    <sheet name="GU5　ダウンロード画面" sheetId="27" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'GU1　TOP画面'!$A$1:$K$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">GU2アラームセット画面!$A$1:$K$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">GU3アラームストップ画面!$A$1:$K$80</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">GU4ミュージック画面!$A$1:$K$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'GU3アラームストップ画面 (通学用)'!$A$1:$K$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">GU4ミュージック画面!$A$1:$K$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'GU5　ダウンロード画面'!$A$1:$K$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -93,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="109">
   <si>
     <t>画面一覧</t>
     <rPh sb="0" eb="2">
@@ -1345,7 +1349,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,6 +1598,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1675,27 +1709,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,20 +1739,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1753,32 +1778,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5081,15 +5094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>715818</xdr:colOff>
+      <xdr:colOff>629227</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542637</xdr:colOff>
+      <xdr:colOff>456046</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>86592</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5104,7 +5117,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4341091" y="5536046"/>
+          <a:off x="4254500" y="5512955"/>
           <a:ext cx="2268682" cy="496455"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5275,6 +5288,454 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714661</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>94093</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7D9F34-07F8-4783-A215-0101BB1F5B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677436" y="2403899"/>
+          <a:ext cx="284307" cy="341937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71882</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523C1471-1F25-4F99-BA4B-BAB988B4243F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8541050" y="5073827"/>
+          <a:ext cx="303357" cy="310146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>662131</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369453</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F948C62-7741-4AA4-B84D-37F240210A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="3226" b="24374"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2474767" y="1499178"/>
+          <a:ext cx="4868141" cy="5786004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583045</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF7520F-269A-4510-A2E2-58AD64931192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6231082" y="2661806"/>
+          <a:ext cx="1314738" cy="156729"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640772</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B22D014-6FA1-47EC-A733-C9AE851CBA97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4266045" y="5536046"/>
+          <a:ext cx="2268682" cy="496455"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577272</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E985DDE7-3111-4A03-A86A-AE98464198BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4196772" y="2584738"/>
+          <a:ext cx="2519219" cy="482890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>10:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP教科書体" panose="02020600000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>592198</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>75045</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C90FAA1-92FC-4400-BF6C-923ACC575E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6629400" y="5274872"/>
+          <a:ext cx="1830448" cy="438973"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6102,6 +6563,834 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>700230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153304</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D48E37-E186-4222-A281-98750CC75EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8282130" y="2758922"/>
+          <a:ext cx="285750" cy="340782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586810</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>891610</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>150997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089D649F-F4D6-4803-BED5-0402EDD0B7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454460" y="5648792"/>
+          <a:ext cx="304800" cy="309280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690994</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398316</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DD20D0-6AC7-434D-BF76-E20F11A433DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2507389" y="1517302"/>
+          <a:ext cx="4875927" cy="5873803"/>
+          <a:chOff x="2555585" y="1481860"/>
+          <a:chExt cx="4868141" cy="5786004"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004476A4-5BCB-43F9-8094-50EF19650763}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect r="3226" b="24374"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2555585" y="1481860"/>
+            <a:ext cx="4868141" cy="5786004"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F139DAEE-1E2E-40CF-A9BB-FF182B28BE15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4023591" y="1691409"/>
+            <a:ext cx="2845955" cy="5345545"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>796636</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300181</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93644F2B-23BC-4062-A64C-E421B0CBDE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6854536" y="2933991"/>
+          <a:ext cx="1313295" cy="156729"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>417286</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>718993</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADEE8B3-5C2D-4BEF-B837-810DDA0954D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4036786" y="2630921"/>
+          <a:ext cx="2740107" cy="608733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>715819</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D6CE1C-8C7B-41BC-B7FD-AE784BF80B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4035136" y="3230129"/>
+          <a:ext cx="2738583" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>417286</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>710046</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81873DF1-D0DE-443A-815E-AC012B8661CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4036786" y="3833957"/>
+          <a:ext cx="2731160" cy="608734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>427182</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>710046</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8CDFA1-B4F8-4C6E-AA18-B78A3E60085E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4046682" y="4442692"/>
+          <a:ext cx="2721264" cy="609599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421409</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAAD7B4-0AC5-4536-A6E9-BC24F466B8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4040909" y="5048827"/>
+          <a:ext cx="2734541" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>721592</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1125683</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="加算記号 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9FA49B-D733-40AE-82D2-4FD7DF3FB863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245967" y="5754255"/>
+          <a:ext cx="404091" cy="382732"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8369"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1385454</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>531091</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210ADBE5-FB64-46D2-8120-A1917DAF76D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5909829" y="5864802"/>
+          <a:ext cx="2488912" cy="116321"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115455</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24114F59-776D-45F9-8D3A-E724FF6A0AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6173355" y="2835853"/>
+          <a:ext cx="432955" cy="266411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7033,16 +8322,16 @@
       <c r="U3" s="50"/>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
-      <c r="X3" s="108" t="s">
+      <c r="X3" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110">
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120">
         <v>43711</v>
       </c>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="109"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="119"/>
       <c r="AD3" s="50"/>
       <c r="AE3" s="50"/>
       <c r="AF3" s="52"/>
@@ -7157,20 +8446,20 @@
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="114"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="124"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -7188,79 +8477,79 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="49"/>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="121" t="s">
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="123"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="133"/>
       <c r="R8" s="50"/>
       <c r="S8" s="50"/>
       <c r="T8" s="50"/>
       <c r="U8" s="50"/>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
-      <c r="X8" s="108" t="s">
+      <c r="X8" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="108" t="s">
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="108" t="s">
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="109"/>
+      <c r="AC8" s="119"/>
       <c r="AE8" s="50"/>
       <c r="AF8" s="52"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="49"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
       <c r="W9" s="50"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="134"/>
-      <c r="AB9" s="127" t="s">
+      <c r="X9" s="137"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="128"/>
+      <c r="AC9" s="138"/>
       <c r="AE9" s="50"/>
       <c r="AF9" s="52"/>
     </row>
@@ -7288,12 +8577,12 @@
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
       <c r="W10" s="50"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="130"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="146"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="140"/>
       <c r="AE10" s="50"/>
       <c r="AF10" s="52"/>
     </row>
@@ -7321,12 +8610,12 @@
       <c r="U11" s="58"/>
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="132"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="142"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="142"/>
       <c r="AE11" s="58"/>
       <c r="AF11" s="52"/>
     </row>
@@ -7366,106 +8655,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="49"/>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="139"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
       <c r="AF13" s="52"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="49"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="139"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="117"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="117"/>
       <c r="AF14" s="52"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="49"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="117"/>
       <c r="AF15" s="52"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -7608,630 +8897,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="49"/>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="140" t="s">
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="140" t="s">
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="141"/>
-      <c r="AA20" s="141"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="140" t="s">
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="112"/>
+      <c r="X20" s="112"/>
+      <c r="Y20" s="112"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="112"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="142"/>
+      <c r="AD20" s="112"/>
+      <c r="AE20" s="113"/>
       <c r="AF20" s="52"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="49"/>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="143">
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114">
         <v>43578</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="140" t="s">
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
-      <c r="W21" s="141"/>
-      <c r="X21" s="141"/>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="142"/>
-      <c r="AC21" s="140" t="s">
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="142"/>
+      <c r="AD21" s="112"/>
+      <c r="AE21" s="113"/>
       <c r="AF21" s="52"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="49"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
-      <c r="W22" s="141"/>
-      <c r="X22" s="141"/>
-      <c r="Y22" s="141"/>
-      <c r="Z22" s="141"/>
-      <c r="AA22" s="141"/>
-      <c r="AB22" s="142"/>
-      <c r="AC22" s="140"/>
-      <c r="AD22" s="141"/>
-      <c r="AE22" s="142"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="112"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="112"/>
+      <c r="AE22" s="113"/>
       <c r="AF22" s="52"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="49"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
-      <c r="W23" s="141"/>
-      <c r="X23" s="141"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="142"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="113"/>
       <c r="AF23" s="52"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="49"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="141"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
-      <c r="W24" s="141"/>
-      <c r="X24" s="141"/>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="141"/>
-      <c r="AA24" s="141"/>
-      <c r="AB24" s="142"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="142"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="113"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="113"/>
       <c r="AF24" s="52"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="49"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="141"/>
-      <c r="AA25" s="141"/>
-      <c r="AB25" s="142"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="142"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="112"/>
+      <c r="AE25" s="113"/>
       <c r="AF25" s="52"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="49"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="141"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="141"/>
-      <c r="Z26" s="141"/>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="142"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="142"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="113"/>
       <c r="AF26" s="52"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="49"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="142"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="142"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="113"/>
       <c r="AF27" s="52"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="49"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="141"/>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="141"/>
-      <c r="Z28" s="141"/>
-      <c r="AA28" s="141"/>
-      <c r="AB28" s="142"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="141"/>
-      <c r="AE28" s="142"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="113"/>
       <c r="AF28" s="52"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="49"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="141"/>
-      <c r="T29" s="141"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="141"/>
-      <c r="W29" s="141"/>
-      <c r="X29" s="141"/>
-      <c r="Y29" s="141"/>
-      <c r="Z29" s="141"/>
-      <c r="AA29" s="141"/>
-      <c r="AB29" s="142"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="141"/>
-      <c r="AE29" s="142"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="113"/>
       <c r="AF29" s="52"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="49"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="141"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="141"/>
-      <c r="W30" s="141"/>
-      <c r="X30" s="141"/>
-      <c r="Y30" s="141"/>
-      <c r="Z30" s="141"/>
-      <c r="AA30" s="141"/>
-      <c r="AB30" s="142"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="141"/>
-      <c r="AE30" s="142"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="112"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="112"/>
+      <c r="AE30" s="113"/>
       <c r="AF30" s="52"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="49"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="141"/>
-      <c r="U31" s="141"/>
-      <c r="V31" s="141"/>
-      <c r="W31" s="141"/>
-      <c r="X31" s="141"/>
-      <c r="Y31" s="141"/>
-      <c r="Z31" s="141"/>
-      <c r="AA31" s="141"/>
-      <c r="AB31" s="142"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="141"/>
-      <c r="AE31" s="142"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="113"/>
       <c r="AF31" s="52"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="49"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="141"/>
-      <c r="U32" s="141"/>
-      <c r="V32" s="141"/>
-      <c r="W32" s="141"/>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="141"/>
-      <c r="Z32" s="141"/>
-      <c r="AA32" s="141"/>
-      <c r="AB32" s="142"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="141"/>
-      <c r="AE32" s="142"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="113"/>
       <c r="AF32" s="52"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="49"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="141"/>
-      <c r="W33" s="141"/>
-      <c r="X33" s="141"/>
-      <c r="Y33" s="141"/>
-      <c r="Z33" s="141"/>
-      <c r="AA33" s="141"/>
-      <c r="AB33" s="142"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="141"/>
-      <c r="AE33" s="142"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="112"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="113"/>
       <c r="AF33" s="52"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="49"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="141"/>
-      <c r="S34" s="141"/>
-      <c r="T34" s="141"/>
-      <c r="U34" s="141"/>
-      <c r="V34" s="141"/>
-      <c r="W34" s="141"/>
-      <c r="X34" s="141"/>
-      <c r="Y34" s="141"/>
-      <c r="Z34" s="141"/>
-      <c r="AA34" s="141"/>
-      <c r="AB34" s="142"/>
-      <c r="AC34" s="140"/>
-      <c r="AD34" s="141"/>
-      <c r="AE34" s="142"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="112"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="112"/>
+      <c r="Z34" s="112"/>
+      <c r="AA34" s="112"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="112"/>
+      <c r="AE34" s="113"/>
       <c r="AF34" s="52"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="49"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="141"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="141"/>
-      <c r="R35" s="141"/>
-      <c r="S35" s="141"/>
-      <c r="T35" s="141"/>
-      <c r="U35" s="141"/>
-      <c r="V35" s="141"/>
-      <c r="W35" s="141"/>
-      <c r="X35" s="141"/>
-      <c r="Y35" s="141"/>
-      <c r="Z35" s="141"/>
-      <c r="AA35" s="141"/>
-      <c r="AB35" s="142"/>
-      <c r="AC35" s="140"/>
-      <c r="AD35" s="141"/>
-      <c r="AE35" s="142"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="112"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="112"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="112"/>
+      <c r="AE35" s="113"/>
       <c r="AF35" s="52"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="49"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="141"/>
-      <c r="P36" s="141"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="141"/>
-      <c r="S36" s="141"/>
-      <c r="T36" s="141"/>
-      <c r="U36" s="141"/>
-      <c r="V36" s="141"/>
-      <c r="W36" s="141"/>
-      <c r="X36" s="141"/>
-      <c r="Y36" s="141"/>
-      <c r="Z36" s="141"/>
-      <c r="AA36" s="141"/>
-      <c r="AB36" s="142"/>
-      <c r="AC36" s="140"/>
-      <c r="AD36" s="141"/>
-      <c r="AE36" s="142"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="112"/>
+      <c r="S36" s="112"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="112"/>
+      <c r="W36" s="112"/>
+      <c r="X36" s="112"/>
+      <c r="Y36" s="112"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="113"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="113"/>
       <c r="AF36" s="52"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="49"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="141"/>
-      <c r="N37" s="141"/>
-      <c r="O37" s="141"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="141"/>
-      <c r="R37" s="141"/>
-      <c r="S37" s="141"/>
-      <c r="T37" s="141"/>
-      <c r="U37" s="141"/>
-      <c r="V37" s="141"/>
-      <c r="W37" s="141"/>
-      <c r="X37" s="141"/>
-      <c r="Y37" s="141"/>
-      <c r="Z37" s="141"/>
-      <c r="AA37" s="141"/>
-      <c r="AB37" s="142"/>
-      <c r="AC37" s="140"/>
-      <c r="AD37" s="141"/>
-      <c r="AE37" s="142"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="112"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="112"/>
+      <c r="W37" s="112"/>
+      <c r="X37" s="112"/>
+      <c r="Y37" s="112"/>
+      <c r="Z37" s="112"/>
+      <c r="AA37" s="112"/>
+      <c r="AB37" s="113"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="112"/>
+      <c r="AE37" s="113"/>
       <c r="AF37" s="52"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -8270,6 +9559,78 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="J37:AB37"/>
@@ -8282,78 +9643,6 @@
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="J36:AB36"/>
     <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -8903,19 +10192,19 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="155"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="158"/>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
@@ -8924,17 +10213,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="151"/>
+      <c r="A3" s="154"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="158"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
@@ -8943,17 +10232,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="152"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="158"/>
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
@@ -8962,36 +10251,36 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="153" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="152"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="155"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
@@ -9014,11 +10303,11 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -9188,9 +10477,9 @@
       <c r="A22" s="95"/>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
       <c r="I22" s="96"/>
@@ -9313,7 +10602,7 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -9452,19 +10741,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -9473,15 +10762,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -9494,15 +10783,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -9515,15 +10804,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -9538,15 +10827,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -9557,15 +10846,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -9589,19 +10878,19 @@
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -10059,19 +11348,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="170"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -10102,180 +11391,180 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="164" t="s">
+      <c r="C46" s="124"/>
+      <c r="D46" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="104"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="124"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="164" t="s">
+      <c r="C47" s="124"/>
+      <c r="D47" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="114"/>
+      <c r="E47" s="124"/>
       <c r="F47" s="104"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="164" t="s">
+      <c r="I47" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="124"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="164" t="s">
+      <c r="C48" s="124"/>
+      <c r="D48" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="114"/>
+      <c r="E48" s="124"/>
       <c r="F48" s="104"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="164" t="s">
+      <c r="I48" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="124"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="164" t="s">
+      <c r="B49" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="164" t="s">
+      <c r="C49" s="124"/>
+      <c r="D49" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="114"/>
+      <c r="E49" s="124"/>
       <c r="F49" s="104"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="164" t="s">
+      <c r="I49" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="124"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="171"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="124"/>
       <c r="F50" s="104"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="124"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="159"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="173"/>
       <c r="F51" s="91"/>
       <c r="G51" s="91"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="173"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="173"/>
       <c r="F52" s="91"/>
       <c r="G52" s="91"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="173"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="173"/>
       <c r="F53" s="91"/>
       <c r="G53" s="91"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="173"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="173"/>
       <c r="F54" s="91"/>
       <c r="G54" s="91"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="173"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="173"/>
       <c r="F55" s="91"/>
       <c r="G55" s="91"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="159"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="173"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -10334,14 +11623,14 @@
     <row r="61" spans="1:11">
       <c r="A61" s="89"/>
       <c r="B61" s="90"/>
-      <c r="C61" s="156" t="s">
+      <c r="C61" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
+      <c r="D61" s="175"/>
+      <c r="E61" s="175"/>
+      <c r="F61" s="175"/>
+      <c r="G61" s="175"/>
+      <c r="H61" s="175"/>
       <c r="I61" s="90"/>
       <c r="J61" s="90"/>
       <c r="K61" s="78"/>
@@ -10376,15 +11665,15 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="89"/>
-      <c r="B64" s="156" t="s">
+      <c r="B64" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="175"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="175"/>
+      <c r="G64" s="175"/>
+      <c r="H64" s="175"/>
       <c r="I64" s="90"/>
       <c r="J64" s="90"/>
       <c r="K64" s="78"/>
@@ -10419,15 +11708,15 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="89"/>
-      <c r="B67" s="157" t="s">
+      <c r="B67" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
+      <c r="C67" s="176"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="176"/>
+      <c r="F67" s="176"/>
+      <c r="G67" s="176"/>
+      <c r="H67" s="176"/>
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
       <c r="K67" s="78"/>
@@ -10602,36 +11891,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="A56:K56"/>
     <mergeCell ref="B53:C53"/>
@@ -10640,11 +11904,36 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10799,19 +12088,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="65" t="s">
@@ -10820,15 +12109,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -10841,15 +12130,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -10862,15 +12151,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -10885,15 +12174,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -10904,15 +12193,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -10942,19 +12231,19 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
       <c r="N8" s="36" t="s">
         <v>103</v>
       </c>
@@ -11421,19 +12710,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="170"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -11466,168 +12755,168 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="164" t="s">
+      <c r="C46" s="124"/>
+      <c r="D46" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="124"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="164"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="114"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="124"/>
       <c r="F47" s="105"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="124"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="164" t="s">
+      <c r="C48" s="124"/>
+      <c r="D48" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="114"/>
+      <c r="E48" s="124"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="164" t="s">
+      <c r="I48" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="124"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="124"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="124"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="171"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="124"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="124"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="159"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="173"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="173"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="173"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="173"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="173"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="173"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="173"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="173"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="173"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="159"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="173"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -11947,36 +13236,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -11987,6 +13246,36 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12002,8 +13291,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView topLeftCell="C5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -12141,19 +13430,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -12162,15 +13451,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -12183,15 +13472,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -12204,15 +13493,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -12227,15 +13516,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -12246,15 +13535,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -12278,19 +13567,19 @@
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -12748,19 +14037,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="170"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -12793,170 +14082,170 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="164" t="s">
+      <c r="C46" s="124"/>
+      <c r="D46" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="124"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="164" t="s">
+      <c r="C47" s="124"/>
+      <c r="D47" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="114"/>
+      <c r="E47" s="124"/>
       <c r="F47" s="107"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="164" t="s">
+      <c r="I47" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="124"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="114"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="124"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="164" t="s">
+      <c r="I48" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="124"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="124"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="124"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="171"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="124"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="124"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="159"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="173"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="173"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="173"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="173"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="173"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="173"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="173"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="173"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="173"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="159"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="173"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -13276,36 +14565,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -13316,6 +14575,36 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13325,6 +14614,1335 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF7B4D-1619-4A01-BE4A-D07E8CDBBAF4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
+  <cols>
+    <col min="1" max="5" width="11.875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="11.875" style="36" customWidth="1"/>
+    <col min="12" max="258" width="8.125" style="36"/>
+    <col min="259" max="267" width="11.875" style="36" customWidth="1"/>
+    <col min="268" max="514" width="8.125" style="36"/>
+    <col min="515" max="523" width="11.875" style="36" customWidth="1"/>
+    <col min="524" max="770" width="8.125" style="36"/>
+    <col min="771" max="779" width="11.875" style="36" customWidth="1"/>
+    <col min="780" max="1026" width="8.125" style="36"/>
+    <col min="1027" max="1035" width="11.875" style="36" customWidth="1"/>
+    <col min="1036" max="1282" width="8.125" style="36"/>
+    <col min="1283" max="1291" width="11.875" style="36" customWidth="1"/>
+    <col min="1292" max="1538" width="8.125" style="36"/>
+    <col min="1539" max="1547" width="11.875" style="36" customWidth="1"/>
+    <col min="1548" max="1794" width="8.125" style="36"/>
+    <col min="1795" max="1803" width="11.875" style="36" customWidth="1"/>
+    <col min="1804" max="2050" width="8.125" style="36"/>
+    <col min="2051" max="2059" width="11.875" style="36" customWidth="1"/>
+    <col min="2060" max="2306" width="8.125" style="36"/>
+    <col min="2307" max="2315" width="11.875" style="36" customWidth="1"/>
+    <col min="2316" max="2562" width="8.125" style="36"/>
+    <col min="2563" max="2571" width="11.875" style="36" customWidth="1"/>
+    <col min="2572" max="2818" width="8.125" style="36"/>
+    <col min="2819" max="2827" width="11.875" style="36" customWidth="1"/>
+    <col min="2828" max="3074" width="8.125" style="36"/>
+    <col min="3075" max="3083" width="11.875" style="36" customWidth="1"/>
+    <col min="3084" max="3330" width="8.125" style="36"/>
+    <col min="3331" max="3339" width="11.875" style="36" customWidth="1"/>
+    <col min="3340" max="3586" width="8.125" style="36"/>
+    <col min="3587" max="3595" width="11.875" style="36" customWidth="1"/>
+    <col min="3596" max="3842" width="8.125" style="36"/>
+    <col min="3843" max="3851" width="11.875" style="36" customWidth="1"/>
+    <col min="3852" max="4098" width="8.125" style="36"/>
+    <col min="4099" max="4107" width="11.875" style="36" customWidth="1"/>
+    <col min="4108" max="4354" width="8.125" style="36"/>
+    <col min="4355" max="4363" width="11.875" style="36" customWidth="1"/>
+    <col min="4364" max="4610" width="8.125" style="36"/>
+    <col min="4611" max="4619" width="11.875" style="36" customWidth="1"/>
+    <col min="4620" max="4866" width="8.125" style="36"/>
+    <col min="4867" max="4875" width="11.875" style="36" customWidth="1"/>
+    <col min="4876" max="5122" width="8.125" style="36"/>
+    <col min="5123" max="5131" width="11.875" style="36" customWidth="1"/>
+    <col min="5132" max="5378" width="8.125" style="36"/>
+    <col min="5379" max="5387" width="11.875" style="36" customWidth="1"/>
+    <col min="5388" max="5634" width="8.125" style="36"/>
+    <col min="5635" max="5643" width="11.875" style="36" customWidth="1"/>
+    <col min="5644" max="5890" width="8.125" style="36"/>
+    <col min="5891" max="5899" width="11.875" style="36" customWidth="1"/>
+    <col min="5900" max="6146" width="8.125" style="36"/>
+    <col min="6147" max="6155" width="11.875" style="36" customWidth="1"/>
+    <col min="6156" max="6402" width="8.125" style="36"/>
+    <col min="6403" max="6411" width="11.875" style="36" customWidth="1"/>
+    <col min="6412" max="6658" width="8.125" style="36"/>
+    <col min="6659" max="6667" width="11.875" style="36" customWidth="1"/>
+    <col min="6668" max="6914" width="8.125" style="36"/>
+    <col min="6915" max="6923" width="11.875" style="36" customWidth="1"/>
+    <col min="6924" max="7170" width="8.125" style="36"/>
+    <col min="7171" max="7179" width="11.875" style="36" customWidth="1"/>
+    <col min="7180" max="7426" width="8.125" style="36"/>
+    <col min="7427" max="7435" width="11.875" style="36" customWidth="1"/>
+    <col min="7436" max="7682" width="8.125" style="36"/>
+    <col min="7683" max="7691" width="11.875" style="36" customWidth="1"/>
+    <col min="7692" max="7938" width="8.125" style="36"/>
+    <col min="7939" max="7947" width="11.875" style="36" customWidth="1"/>
+    <col min="7948" max="8194" width="8.125" style="36"/>
+    <col min="8195" max="8203" width="11.875" style="36" customWidth="1"/>
+    <col min="8204" max="8450" width="8.125" style="36"/>
+    <col min="8451" max="8459" width="11.875" style="36" customWidth="1"/>
+    <col min="8460" max="8706" width="8.125" style="36"/>
+    <col min="8707" max="8715" width="11.875" style="36" customWidth="1"/>
+    <col min="8716" max="8962" width="8.125" style="36"/>
+    <col min="8963" max="8971" width="11.875" style="36" customWidth="1"/>
+    <col min="8972" max="9218" width="8.125" style="36"/>
+    <col min="9219" max="9227" width="11.875" style="36" customWidth="1"/>
+    <col min="9228" max="9474" width="8.125" style="36"/>
+    <col min="9475" max="9483" width="11.875" style="36" customWidth="1"/>
+    <col min="9484" max="9730" width="8.125" style="36"/>
+    <col min="9731" max="9739" width="11.875" style="36" customWidth="1"/>
+    <col min="9740" max="9986" width="8.125" style="36"/>
+    <col min="9987" max="9995" width="11.875" style="36" customWidth="1"/>
+    <col min="9996" max="10242" width="8.125" style="36"/>
+    <col min="10243" max="10251" width="11.875" style="36" customWidth="1"/>
+    <col min="10252" max="10498" width="8.125" style="36"/>
+    <col min="10499" max="10507" width="11.875" style="36" customWidth="1"/>
+    <col min="10508" max="10754" width="8.125" style="36"/>
+    <col min="10755" max="10763" width="11.875" style="36" customWidth="1"/>
+    <col min="10764" max="11010" width="8.125" style="36"/>
+    <col min="11011" max="11019" width="11.875" style="36" customWidth="1"/>
+    <col min="11020" max="11266" width="8.125" style="36"/>
+    <col min="11267" max="11275" width="11.875" style="36" customWidth="1"/>
+    <col min="11276" max="11522" width="8.125" style="36"/>
+    <col min="11523" max="11531" width="11.875" style="36" customWidth="1"/>
+    <col min="11532" max="11778" width="8.125" style="36"/>
+    <col min="11779" max="11787" width="11.875" style="36" customWidth="1"/>
+    <col min="11788" max="12034" width="8.125" style="36"/>
+    <col min="12035" max="12043" width="11.875" style="36" customWidth="1"/>
+    <col min="12044" max="12290" width="8.125" style="36"/>
+    <col min="12291" max="12299" width="11.875" style="36" customWidth="1"/>
+    <col min="12300" max="12546" width="8.125" style="36"/>
+    <col min="12547" max="12555" width="11.875" style="36" customWidth="1"/>
+    <col min="12556" max="12802" width="8.125" style="36"/>
+    <col min="12803" max="12811" width="11.875" style="36" customWidth="1"/>
+    <col min="12812" max="13058" width="8.125" style="36"/>
+    <col min="13059" max="13067" width="11.875" style="36" customWidth="1"/>
+    <col min="13068" max="13314" width="8.125" style="36"/>
+    <col min="13315" max="13323" width="11.875" style="36" customWidth="1"/>
+    <col min="13324" max="13570" width="8.125" style="36"/>
+    <col min="13571" max="13579" width="11.875" style="36" customWidth="1"/>
+    <col min="13580" max="13826" width="8.125" style="36"/>
+    <col min="13827" max="13835" width="11.875" style="36" customWidth="1"/>
+    <col min="13836" max="14082" width="8.125" style="36"/>
+    <col min="14083" max="14091" width="11.875" style="36" customWidth="1"/>
+    <col min="14092" max="14338" width="8.125" style="36"/>
+    <col min="14339" max="14347" width="11.875" style="36" customWidth="1"/>
+    <col min="14348" max="14594" width="8.125" style="36"/>
+    <col min="14595" max="14603" width="11.875" style="36" customWidth="1"/>
+    <col min="14604" max="14850" width="8.125" style="36"/>
+    <col min="14851" max="14859" width="11.875" style="36" customWidth="1"/>
+    <col min="14860" max="15106" width="8.125" style="36"/>
+    <col min="15107" max="15115" width="11.875" style="36" customWidth="1"/>
+    <col min="15116" max="15362" width="8.125" style="36"/>
+    <col min="15363" max="15371" width="11.875" style="36" customWidth="1"/>
+    <col min="15372" max="15618" width="8.125" style="36"/>
+    <col min="15619" max="15627" width="11.875" style="36" customWidth="1"/>
+    <col min="15628" max="15874" width="8.125" style="36"/>
+    <col min="15875" max="15883" width="11.875" style="36" customWidth="1"/>
+    <col min="15884" max="16130" width="8.125" style="36"/>
+    <col min="16131" max="16139" width="11.875" style="36" customWidth="1"/>
+    <col min="16140" max="16384" width="8.125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="69"/>
+      <c r="B3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="70">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="69"/>
+      <c r="B4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="159" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7" s="74"/>
+      <c r="B7" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="78"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="89"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="78"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="89"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="89"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="78"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="78"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A15" s="89"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="78"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="89"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="78"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="89"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="78"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="89"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="78"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="89"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="78"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="89"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="78"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="89"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="78"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="89"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="78"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="89"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="78"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="89"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="78"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="89"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="78"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="89"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="78"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="78"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="89"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="78"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="89"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="78"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="89"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="78"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="89"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="78"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="89"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="78"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="89"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="78"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="89"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="78"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="89"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="78"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="89"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="78"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="89"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="78"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="89"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="78"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="89"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="78"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="89"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="78"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="89"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="78"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="89"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="78"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="81"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="170"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="84"/>
+      <c r="D45" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="85"/>
+      <c r="K45" s="84"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="171" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="124"/>
+      <c r="D46" s="171" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="124"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="171" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="123"/>
+      <c r="K46" s="124"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="171" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="124"/>
+      <c r="D47" s="171" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="124"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="123"/>
+      <c r="K47" s="124"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="171"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="123"/>
+      <c r="K48" s="124"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="171"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="124"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="171"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="124"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="86"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="173"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="173"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="86"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="173"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="86"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="173"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="86"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="173"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="86"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="173"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="89"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="78"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="89"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="78"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="89"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="78"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="89"/>
+      <c r="B60" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="78"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="89"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="78"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="89"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="78"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="89"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="78"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="89"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="78"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="89"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="78"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="89"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="78"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="89"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="78"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="89"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="78"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="89"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="78"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="89"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="78"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="89"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="78"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="89"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="78"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="89"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="78"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="89"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="78"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="89"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
+      <c r="J75" s="92"/>
+      <c r="K75" s="78"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="89"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
+      <c r="J76" s="92"/>
+      <c r="K76" s="78"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="89"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="78"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="89"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="78"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="89"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="78"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="79"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64631AC-A37F-47E9-802A-8F78D8FA7F64}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13470,19 +16088,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -13491,15 +16109,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -13512,15 +16130,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -13533,15 +16151,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -13556,15 +16174,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -13575,15 +16193,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -13607,19 +16225,19 @@
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -14077,19 +16695,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="170"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -14122,162 +16740,162 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="164" t="s">
+      <c r="C46" s="124"/>
+      <c r="D46" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="124"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="164"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="114"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="124"/>
       <c r="F47" s="105"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="124"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="114"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="124"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="124"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="124"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="124"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="171"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="124"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="124"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="159"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="173"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="173"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="173"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="173"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="173"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="173"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="173"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="173"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="173"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="159"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="173"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -14597,36 +17215,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -14637,6 +17225,1357 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDD0468-0E1C-4C50-8E86-9DF152070D57}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
+  <cols>
+    <col min="1" max="5" width="11.875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="11.875" style="36" customWidth="1"/>
+    <col min="12" max="258" width="8.125" style="36"/>
+    <col min="259" max="267" width="11.875" style="36" customWidth="1"/>
+    <col min="268" max="514" width="8.125" style="36"/>
+    <col min="515" max="523" width="11.875" style="36" customWidth="1"/>
+    <col min="524" max="770" width="8.125" style="36"/>
+    <col min="771" max="779" width="11.875" style="36" customWidth="1"/>
+    <col min="780" max="1026" width="8.125" style="36"/>
+    <col min="1027" max="1035" width="11.875" style="36" customWidth="1"/>
+    <col min="1036" max="1282" width="8.125" style="36"/>
+    <col min="1283" max="1291" width="11.875" style="36" customWidth="1"/>
+    <col min="1292" max="1538" width="8.125" style="36"/>
+    <col min="1539" max="1547" width="11.875" style="36" customWidth="1"/>
+    <col min="1548" max="1794" width="8.125" style="36"/>
+    <col min="1795" max="1803" width="11.875" style="36" customWidth="1"/>
+    <col min="1804" max="2050" width="8.125" style="36"/>
+    <col min="2051" max="2059" width="11.875" style="36" customWidth="1"/>
+    <col min="2060" max="2306" width="8.125" style="36"/>
+    <col min="2307" max="2315" width="11.875" style="36" customWidth="1"/>
+    <col min="2316" max="2562" width="8.125" style="36"/>
+    <col min="2563" max="2571" width="11.875" style="36" customWidth="1"/>
+    <col min="2572" max="2818" width="8.125" style="36"/>
+    <col min="2819" max="2827" width="11.875" style="36" customWidth="1"/>
+    <col min="2828" max="3074" width="8.125" style="36"/>
+    <col min="3075" max="3083" width="11.875" style="36" customWidth="1"/>
+    <col min="3084" max="3330" width="8.125" style="36"/>
+    <col min="3331" max="3339" width="11.875" style="36" customWidth="1"/>
+    <col min="3340" max="3586" width="8.125" style="36"/>
+    <col min="3587" max="3595" width="11.875" style="36" customWidth="1"/>
+    <col min="3596" max="3842" width="8.125" style="36"/>
+    <col min="3843" max="3851" width="11.875" style="36" customWidth="1"/>
+    <col min="3852" max="4098" width="8.125" style="36"/>
+    <col min="4099" max="4107" width="11.875" style="36" customWidth="1"/>
+    <col min="4108" max="4354" width="8.125" style="36"/>
+    <col min="4355" max="4363" width="11.875" style="36" customWidth="1"/>
+    <col min="4364" max="4610" width="8.125" style="36"/>
+    <col min="4611" max="4619" width="11.875" style="36" customWidth="1"/>
+    <col min="4620" max="4866" width="8.125" style="36"/>
+    <col min="4867" max="4875" width="11.875" style="36" customWidth="1"/>
+    <col min="4876" max="5122" width="8.125" style="36"/>
+    <col min="5123" max="5131" width="11.875" style="36" customWidth="1"/>
+    <col min="5132" max="5378" width="8.125" style="36"/>
+    <col min="5379" max="5387" width="11.875" style="36" customWidth="1"/>
+    <col min="5388" max="5634" width="8.125" style="36"/>
+    <col min="5635" max="5643" width="11.875" style="36" customWidth="1"/>
+    <col min="5644" max="5890" width="8.125" style="36"/>
+    <col min="5891" max="5899" width="11.875" style="36" customWidth="1"/>
+    <col min="5900" max="6146" width="8.125" style="36"/>
+    <col min="6147" max="6155" width="11.875" style="36" customWidth="1"/>
+    <col min="6156" max="6402" width="8.125" style="36"/>
+    <col min="6403" max="6411" width="11.875" style="36" customWidth="1"/>
+    <col min="6412" max="6658" width="8.125" style="36"/>
+    <col min="6659" max="6667" width="11.875" style="36" customWidth="1"/>
+    <col min="6668" max="6914" width="8.125" style="36"/>
+    <col min="6915" max="6923" width="11.875" style="36" customWidth="1"/>
+    <col min="6924" max="7170" width="8.125" style="36"/>
+    <col min="7171" max="7179" width="11.875" style="36" customWidth="1"/>
+    <col min="7180" max="7426" width="8.125" style="36"/>
+    <col min="7427" max="7435" width="11.875" style="36" customWidth="1"/>
+    <col min="7436" max="7682" width="8.125" style="36"/>
+    <col min="7683" max="7691" width="11.875" style="36" customWidth="1"/>
+    <col min="7692" max="7938" width="8.125" style="36"/>
+    <col min="7939" max="7947" width="11.875" style="36" customWidth="1"/>
+    <col min="7948" max="8194" width="8.125" style="36"/>
+    <col min="8195" max="8203" width="11.875" style="36" customWidth="1"/>
+    <col min="8204" max="8450" width="8.125" style="36"/>
+    <col min="8451" max="8459" width="11.875" style="36" customWidth="1"/>
+    <col min="8460" max="8706" width="8.125" style="36"/>
+    <col min="8707" max="8715" width="11.875" style="36" customWidth="1"/>
+    <col min="8716" max="8962" width="8.125" style="36"/>
+    <col min="8963" max="8971" width="11.875" style="36" customWidth="1"/>
+    <col min="8972" max="9218" width="8.125" style="36"/>
+    <col min="9219" max="9227" width="11.875" style="36" customWidth="1"/>
+    <col min="9228" max="9474" width="8.125" style="36"/>
+    <col min="9475" max="9483" width="11.875" style="36" customWidth="1"/>
+    <col min="9484" max="9730" width="8.125" style="36"/>
+    <col min="9731" max="9739" width="11.875" style="36" customWidth="1"/>
+    <col min="9740" max="9986" width="8.125" style="36"/>
+    <col min="9987" max="9995" width="11.875" style="36" customWidth="1"/>
+    <col min="9996" max="10242" width="8.125" style="36"/>
+    <col min="10243" max="10251" width="11.875" style="36" customWidth="1"/>
+    <col min="10252" max="10498" width="8.125" style="36"/>
+    <col min="10499" max="10507" width="11.875" style="36" customWidth="1"/>
+    <col min="10508" max="10754" width="8.125" style="36"/>
+    <col min="10755" max="10763" width="11.875" style="36" customWidth="1"/>
+    <col min="10764" max="11010" width="8.125" style="36"/>
+    <col min="11011" max="11019" width="11.875" style="36" customWidth="1"/>
+    <col min="11020" max="11266" width="8.125" style="36"/>
+    <col min="11267" max="11275" width="11.875" style="36" customWidth="1"/>
+    <col min="11276" max="11522" width="8.125" style="36"/>
+    <col min="11523" max="11531" width="11.875" style="36" customWidth="1"/>
+    <col min="11532" max="11778" width="8.125" style="36"/>
+    <col min="11779" max="11787" width="11.875" style="36" customWidth="1"/>
+    <col min="11788" max="12034" width="8.125" style="36"/>
+    <col min="12035" max="12043" width="11.875" style="36" customWidth="1"/>
+    <col min="12044" max="12290" width="8.125" style="36"/>
+    <col min="12291" max="12299" width="11.875" style="36" customWidth="1"/>
+    <col min="12300" max="12546" width="8.125" style="36"/>
+    <col min="12547" max="12555" width="11.875" style="36" customWidth="1"/>
+    <col min="12556" max="12802" width="8.125" style="36"/>
+    <col min="12803" max="12811" width="11.875" style="36" customWidth="1"/>
+    <col min="12812" max="13058" width="8.125" style="36"/>
+    <col min="13059" max="13067" width="11.875" style="36" customWidth="1"/>
+    <col min="13068" max="13314" width="8.125" style="36"/>
+    <col min="13315" max="13323" width="11.875" style="36" customWidth="1"/>
+    <col min="13324" max="13570" width="8.125" style="36"/>
+    <col min="13571" max="13579" width="11.875" style="36" customWidth="1"/>
+    <col min="13580" max="13826" width="8.125" style="36"/>
+    <col min="13827" max="13835" width="11.875" style="36" customWidth="1"/>
+    <col min="13836" max="14082" width="8.125" style="36"/>
+    <col min="14083" max="14091" width="11.875" style="36" customWidth="1"/>
+    <col min="14092" max="14338" width="8.125" style="36"/>
+    <col min="14339" max="14347" width="11.875" style="36" customWidth="1"/>
+    <col min="14348" max="14594" width="8.125" style="36"/>
+    <col min="14595" max="14603" width="11.875" style="36" customWidth="1"/>
+    <col min="14604" max="14850" width="8.125" style="36"/>
+    <col min="14851" max="14859" width="11.875" style="36" customWidth="1"/>
+    <col min="14860" max="15106" width="8.125" style="36"/>
+    <col min="15107" max="15115" width="11.875" style="36" customWidth="1"/>
+    <col min="15116" max="15362" width="8.125" style="36"/>
+    <col min="15363" max="15371" width="11.875" style="36" customWidth="1"/>
+    <col min="15372" max="15618" width="8.125" style="36"/>
+    <col min="15619" max="15627" width="11.875" style="36" customWidth="1"/>
+    <col min="15628" max="15874" width="8.125" style="36"/>
+    <col min="15875" max="15883" width="11.875" style="36" customWidth="1"/>
+    <col min="15884" max="16130" width="8.125" style="36"/>
+    <col min="16131" max="16139" width="11.875" style="36" customWidth="1"/>
+    <col min="16140" max="16384" width="8.125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="69"/>
+      <c r="B3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="70">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="69"/>
+      <c r="B4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="159" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="159" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7" s="74"/>
+      <c r="B7" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="78"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="89"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="78"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="89"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="89"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="78"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="78"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A15" s="89"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="78"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="89"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="78"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="89"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="78"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="89"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="78"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="89"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="78"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="89"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="78"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="89"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="78"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="89"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="78"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="89"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="78"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="89"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="78"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="89"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="78"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="89"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="78"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="78"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="89"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="78"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="89"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="78"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="89"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="78"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="89"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="78"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="89"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="78"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="89"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="78"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="89"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="78"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="89"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="78"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="89"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="78"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="89"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="78"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="89"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="78"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="89"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="78"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="89"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="78"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="89"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="78"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="89"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="78"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="81"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="170"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="84"/>
+      <c r="D45" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="85"/>
+      <c r="K45" s="84"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="171" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="124"/>
+      <c r="D46" s="171" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="124"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="123"/>
+      <c r="K46" s="124"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="171"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="124"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="171"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="124"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="171"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="124"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="171"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="124"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="86"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="173"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="173"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="86"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="173"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="86"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="173"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="86"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="173"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="86"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="173"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="89"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="78"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="89"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="78"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="89"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="78"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="89"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="78"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="89"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="78"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="89"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="78"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="89"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="78"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="89"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="78"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="89"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="78"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="89"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="78"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="89"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="78"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="89"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="78"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="89"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="78"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="89"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="78"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="89"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="78"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="89"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="78"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="89"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="78"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="89"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="78"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="89"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
+      <c r="J75" s="92"/>
+      <c r="K75" s="78"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="89"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
+      <c r="J76" s="92"/>
+      <c r="K76" s="78"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="89"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="78"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="89"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="78"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="89"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="78"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="79"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/設計書/sleepleader-画面設計書.xlsx
+++ b/設計書/sleepleader-画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\SleepLeader\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF08282-D10F-41B5-8023-F83C7F8EDF70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F777C9-CB25-45DF-85AB-F62037807898}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="6" activeTab="8" xr2:uid="{17086225-CE09-4162-9671-057735305FFA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="6" activeTab="6" xr2:uid="{17086225-CE09-4162-9671-057735305FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="113">
   <si>
     <t>画面一覧</t>
     <rPh sb="0" eb="2">
@@ -1007,6 +1007,22 @@
     <t>スワイプボタン</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>GU4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GU5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GU3-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GU3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1608,27 +1624,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,6 +1704,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1739,32 +1755,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1778,20 +1782,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3558,138 +3574,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>492124</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="吹き出し: 線 (枠付き、強調線付き) 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AECA96-732A-4C4A-A1ED-B3D0151767DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9294812" y="1770063"/>
-          <a:ext cx="7350125" cy="3611563"/>
-        </a:xfrm>
-        <a:prstGeom prst="accentBorderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 29519"/>
-            <a:gd name="adj2" fmla="val -6821"/>
-            <a:gd name="adj3" fmla="val 83049"/>
-            <a:gd name="adj4" fmla="val -21918"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザーが楽しめるように</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Javascript</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　や　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>css</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ホバー　を使う。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>万人ウケする色にするか</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>テーマカラー選択をできるようにする。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3877,8 +3761,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2503630" y="1499178"/>
-          <a:ext cx="4868141" cy="5786004"/>
+          <a:off x="2500744" y="1497735"/>
+          <a:ext cx="4858760" cy="5765078"/>
           <a:chOff x="2555585" y="1481860"/>
           <a:chExt cx="4868141" cy="5786004"/>
         </a:xfrm>
@@ -6890,388 +6774,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>417286</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>21071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>718993</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>124979</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADEE8B3-5C2D-4BEF-B837-810DDA0954D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4036786" y="2630921"/>
-          <a:ext cx="2740107" cy="608733"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>415636</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>715819</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D6CE1C-8C7B-41BC-B7FD-AE784BF80B72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4035136" y="3230129"/>
-          <a:ext cx="2738583" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>417286</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>710046</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>150091</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81873DF1-D0DE-443A-815E-AC012B8661CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4036786" y="3833957"/>
-          <a:ext cx="2731160" cy="608734"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>427182</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>150092</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>710046</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8CDFA1-B4F8-4C6E-AA18-B78A3E60085E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4046682" y="4442692"/>
-          <a:ext cx="2721264" cy="609599"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>421409</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19627</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAAD7B4-0AC5-4536-A6E9-BC24F466B8E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4040909" y="5048827"/>
-          <a:ext cx="2734541" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>721592</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1125683</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161637</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="加算記号 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9FA49B-D733-40AE-82D2-4FD7DF3FB863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245967" y="5754255"/>
-          <a:ext cx="404091" cy="382732"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathPlus">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8369"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1385454</xdr:colOff>
       <xdr:row>34</xdr:row>
@@ -7318,74 +6820,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>115455</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>548410</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24114F59-776D-45F9-8D3A-E724FF6A0AC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6173355" y="2835853"/>
-          <a:ext cx="432955" cy="266411"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>✔</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8322,16 +7756,16 @@
       <c r="U3" s="50"/>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
-      <c r="X3" s="118" t="s">
+      <c r="X3" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="120">
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="113">
         <v>43711</v>
       </c>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="119"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="112"/>
       <c r="AD3" s="50"/>
       <c r="AE3" s="50"/>
       <c r="AF3" s="52"/>
@@ -8446,20 +7880,20 @@
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="124"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="117"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -8477,79 +7911,79 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="49"/>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="131" t="s">
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="133"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="126"/>
       <c r="R8" s="50"/>
       <c r="S8" s="50"/>
       <c r="T8" s="50"/>
       <c r="U8" s="50"/>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
-      <c r="X8" s="118" t="s">
+      <c r="X8" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="118" t="s">
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="118" t="s">
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="119"/>
+      <c r="AC8" s="112"/>
       <c r="AE8" s="50"/>
       <c r="AF8" s="52"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="49"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="136"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="129"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
       <c r="W9" s="50"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="137" t="s">
+      <c r="X9" s="130"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="136"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="138"/>
+      <c r="AC9" s="131"/>
       <c r="AE9" s="50"/>
       <c r="AF9" s="52"/>
     </row>
@@ -8577,12 +8011,12 @@
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
       <c r="W10" s="50"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="140"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="133"/>
       <c r="AE10" s="50"/>
       <c r="AF10" s="52"/>
     </row>
@@ -8610,12 +8044,12 @@
       <c r="U11" s="58"/>
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="141"/>
-      <c r="AC11" s="142"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="135"/>
       <c r="AE11" s="58"/>
       <c r="AF11" s="52"/>
     </row>
@@ -8655,106 +8089,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="49"/>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142"/>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="142"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+      <c r="AD13" s="142"/>
+      <c r="AE13" s="142"/>
       <c r="AF13" s="52"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="49"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="117"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="142"/>
+      <c r="AE14" s="142"/>
       <c r="AF14" s="52"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="49"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="117"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="142"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="142"/>
+      <c r="AE15" s="142"/>
       <c r="AF15" s="52"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -8897,630 +8331,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="49"/>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="111" t="s">
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="111" t="s">
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="112"/>
-      <c r="Y20" s="112"/>
-      <c r="Z20" s="112"/>
-      <c r="AA20" s="112"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="111" t="s">
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="144"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="144"/>
+      <c r="W20" s="144"/>
+      <c r="X20" s="144"/>
+      <c r="Y20" s="144"/>
+      <c r="Z20" s="144"/>
+      <c r="AA20" s="144"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AD20" s="112"/>
-      <c r="AE20" s="113"/>
+      <c r="AD20" s="144"/>
+      <c r="AE20" s="145"/>
       <c r="AF20" s="52"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="49"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114">
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146">
         <v>43578</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="111" t="s">
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="112"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="111" t="s">
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="144"/>
+      <c r="T21" s="144"/>
+      <c r="U21" s="144"/>
+      <c r="V21" s="144"/>
+      <c r="W21" s="144"/>
+      <c r="X21" s="144"/>
+      <c r="Y21" s="144"/>
+      <c r="Z21" s="144"/>
+      <c r="AA21" s="144"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="112"/>
-      <c r="AE21" s="113"/>
+      <c r="AD21" s="144"/>
+      <c r="AE21" s="145"/>
       <c r="AF21" s="52"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="49"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="112"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="112"/>
-      <c r="Z22" s="112"/>
-      <c r="AA22" s="112"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="112"/>
-      <c r="AE22" s="113"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="144"/>
+      <c r="T22" s="144"/>
+      <c r="U22" s="144"/>
+      <c r="V22" s="144"/>
+      <c r="W22" s="144"/>
+      <c r="X22" s="144"/>
+      <c r="Y22" s="144"/>
+      <c r="Z22" s="144"/>
+      <c r="AA22" s="144"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="143"/>
+      <c r="AD22" s="144"/>
+      <c r="AE22" s="145"/>
       <c r="AF22" s="52"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="49"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="112"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="112"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="112"/>
-      <c r="AE23" s="113"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="144"/>
+      <c r="T23" s="144"/>
+      <c r="U23" s="144"/>
+      <c r="V23" s="144"/>
+      <c r="W23" s="144"/>
+      <c r="X23" s="144"/>
+      <c r="Y23" s="144"/>
+      <c r="Z23" s="144"/>
+      <c r="AA23" s="144"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="143"/>
+      <c r="AD23" s="144"/>
+      <c r="AE23" s="145"/>
       <c r="AF23" s="52"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="49"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="113"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="144"/>
+      <c r="T24" s="144"/>
+      <c r="U24" s="144"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="144"/>
+      <c r="X24" s="144"/>
+      <c r="Y24" s="144"/>
+      <c r="Z24" s="144"/>
+      <c r="AA24" s="144"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="143"/>
+      <c r="AD24" s="144"/>
+      <c r="AE24" s="145"/>
       <c r="AF24" s="52"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="49"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="113"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="113"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="144"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="144"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="144"/>
+      <c r="Y25" s="144"/>
+      <c r="Z25" s="144"/>
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="143"/>
+      <c r="AD25" s="144"/>
+      <c r="AE25" s="145"/>
       <c r="AF25" s="52"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="49"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="113"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="113"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="144"/>
+      <c r="T26" s="144"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
+      <c r="Y26" s="144"/>
+      <c r="Z26" s="144"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="143"/>
+      <c r="AD26" s="144"/>
+      <c r="AE26" s="145"/>
       <c r="AF26" s="52"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="49"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="113"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="113"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="144"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="144"/>
+      <c r="T27" s="144"/>
+      <c r="U27" s="144"/>
+      <c r="V27" s="144"/>
+      <c r="W27" s="144"/>
+      <c r="X27" s="144"/>
+      <c r="Y27" s="144"/>
+      <c r="Z27" s="144"/>
+      <c r="AA27" s="144"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="143"/>
+      <c r="AD27" s="144"/>
+      <c r="AE27" s="145"/>
       <c r="AF27" s="52"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="49"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="113"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="113"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="144"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="144"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="143"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="145"/>
       <c r="AF28" s="52"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="49"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="113"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="144"/>
+      <c r="T29" s="144"/>
+      <c r="U29" s="144"/>
+      <c r="V29" s="144"/>
+      <c r="W29" s="144"/>
+      <c r="X29" s="144"/>
+      <c r="Y29" s="144"/>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="144"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="143"/>
+      <c r="AD29" s="144"/>
+      <c r="AE29" s="145"/>
       <c r="AF29" s="52"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="49"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="113"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="113"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="144"/>
+      <c r="T30" s="144"/>
+      <c r="U30" s="144"/>
+      <c r="V30" s="144"/>
+      <c r="W30" s="144"/>
+      <c r="X30" s="144"/>
+      <c r="Y30" s="144"/>
+      <c r="Z30" s="144"/>
+      <c r="AA30" s="144"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="143"/>
+      <c r="AD30" s="144"/>
+      <c r="AE30" s="145"/>
       <c r="AF30" s="52"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="49"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="113"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="113"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="144"/>
+      <c r="Q31" s="144"/>
+      <c r="R31" s="144"/>
+      <c r="S31" s="144"/>
+      <c r="T31" s="144"/>
+      <c r="U31" s="144"/>
+      <c r="V31" s="144"/>
+      <c r="W31" s="144"/>
+      <c r="X31" s="144"/>
+      <c r="Y31" s="144"/>
+      <c r="Z31" s="144"/>
+      <c r="AA31" s="144"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="143"/>
+      <c r="AD31" s="144"/>
+      <c r="AE31" s="145"/>
       <c r="AF31" s="52"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="49"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="113"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="144"/>
+      <c r="S32" s="144"/>
+      <c r="T32" s="144"/>
+      <c r="U32" s="144"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="144"/>
+      <c r="X32" s="144"/>
+      <c r="Y32" s="144"/>
+      <c r="Z32" s="144"/>
+      <c r="AA32" s="144"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="143"/>
+      <c r="AD32" s="144"/>
+      <c r="AE32" s="145"/>
       <c r="AF32" s="52"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="49"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="112"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="112"/>
-      <c r="AE33" s="113"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="144"/>
+      <c r="T33" s="144"/>
+      <c r="U33" s="144"/>
+      <c r="V33" s="144"/>
+      <c r="W33" s="144"/>
+      <c r="X33" s="144"/>
+      <c r="Y33" s="144"/>
+      <c r="Z33" s="144"/>
+      <c r="AA33" s="144"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="144"/>
+      <c r="AE33" s="145"/>
       <c r="AF33" s="52"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="49"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="112"/>
-      <c r="AB34" s="113"/>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="112"/>
-      <c r="AE34" s="113"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="144"/>
+      <c r="Q34" s="144"/>
+      <c r="R34" s="144"/>
+      <c r="S34" s="144"/>
+      <c r="T34" s="144"/>
+      <c r="U34" s="144"/>
+      <c r="V34" s="144"/>
+      <c r="W34" s="144"/>
+      <c r="X34" s="144"/>
+      <c r="Y34" s="144"/>
+      <c r="Z34" s="144"/>
+      <c r="AA34" s="144"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="144"/>
+      <c r="AE34" s="145"/>
       <c r="AF34" s="52"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="49"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="112"/>
-      <c r="W35" s="112"/>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="113"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="112"/>
-      <c r="AE35" s="113"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="144"/>
+      <c r="S35" s="144"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="144"/>
+      <c r="V35" s="144"/>
+      <c r="W35" s="144"/>
+      <c r="X35" s="144"/>
+      <c r="Y35" s="144"/>
+      <c r="Z35" s="144"/>
+      <c r="AA35" s="144"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="144"/>
+      <c r="AE35" s="145"/>
       <c r="AF35" s="52"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="49"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="112"/>
-      <c r="W36" s="112"/>
-      <c r="X36" s="112"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="112"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="113"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="144"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="144"/>
+      <c r="Y36" s="144"/>
+      <c r="Z36" s="144"/>
+      <c r="AA36" s="144"/>
+      <c r="AB36" s="145"/>
+      <c r="AC36" s="143"/>
+      <c r="AD36" s="144"/>
+      <c r="AE36" s="145"/>
       <c r="AF36" s="52"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="49"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="112"/>
-      <c r="W37" s="112"/>
-      <c r="X37" s="112"/>
-      <c r="Y37" s="112"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="112"/>
-      <c r="AB37" s="113"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="112"/>
-      <c r="AE37" s="113"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="144"/>
+      <c r="R37" s="144"/>
+      <c r="S37" s="144"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="144"/>
+      <c r="V37" s="144"/>
+      <c r="W37" s="144"/>
+      <c r="X37" s="144"/>
+      <c r="Y37" s="144"/>
+      <c r="Z37" s="144"/>
+      <c r="AA37" s="144"/>
+      <c r="AB37" s="145"/>
+      <c r="AC37" s="143"/>
+      <c r="AD37" s="144"/>
+      <c r="AE37" s="145"/>
       <c r="AF37" s="52"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -9559,78 +8993,6 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="J37:AB37"/>
@@ -9643,6 +9005,78 @@
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="J36:AB36"/>
     <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -10602,8 +10036,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -10741,19 +10175,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="164"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -10762,15 +10196,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -10783,15 +10217,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -10804,15 +10238,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="161"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -10827,15 +10261,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -10846,15 +10280,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -10865,32 +10299,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -11348,19 +10782,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="170"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="166"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -11391,180 +10825,180 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="171" t="s">
+      <c r="C46" s="117"/>
+      <c r="D46" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="124"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="104"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="171" t="s">
+      <c r="I46" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="123"/>
-      <c r="K46" s="124"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="171" t="s">
+      <c r="B47" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="124"/>
-      <c r="D47" s="171" t="s">
+      <c r="C47" s="117"/>
+      <c r="D47" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="124"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="104"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="171" t="s">
+      <c r="I47" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="123"/>
-      <c r="K47" s="124"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="171" t="s">
+      <c r="B48" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="124"/>
-      <c r="D48" s="171" t="s">
+      <c r="C48" s="117"/>
+      <c r="D48" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="124"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="104"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="171" t="s">
+      <c r="I48" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="123"/>
-      <c r="K48" s="124"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="171" t="s">
+      <c r="B49" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="124"/>
-      <c r="D49" s="171" t="s">
+      <c r="C49" s="117"/>
+      <c r="D49" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="124"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="104"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="171" t="s">
+      <c r="I49" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="123"/>
-      <c r="K49" s="124"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="124"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="104"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="124"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="162"/>
       <c r="F51" s="91"/>
       <c r="G51" s="91"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="173"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="162"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="162"/>
       <c r="F52" s="91"/>
       <c r="G52" s="91"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="173"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="162"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="162"/>
       <c r="F53" s="91"/>
       <c r="G53" s="91"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="173"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="162"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
       <c r="F54" s="91"/>
       <c r="G54" s="91"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="173"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="162"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
       <c r="F55" s="91"/>
       <c r="G55" s="91"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="173"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="162"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="170"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="166"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -11623,14 +11057,14 @@
     <row r="61" spans="1:11">
       <c r="A61" s="89"/>
       <c r="B61" s="90"/>
-      <c r="C61" s="175" t="s">
+      <c r="C61" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="175"/>
-      <c r="E61" s="175"/>
-      <c r="F61" s="175"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="175"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="159"/>
+      <c r="F61" s="159"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="159"/>
       <c r="I61" s="90"/>
       <c r="J61" s="90"/>
       <c r="K61" s="78"/>
@@ -11665,15 +11099,15 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="89"/>
-      <c r="B64" s="175" t="s">
+      <c r="B64" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="175"/>
-      <c r="D64" s="175"/>
-      <c r="E64" s="175"/>
-      <c r="F64" s="175"/>
-      <c r="G64" s="175"/>
-      <c r="H64" s="175"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="159"/>
       <c r="I64" s="90"/>
       <c r="J64" s="90"/>
       <c r="K64" s="78"/>
@@ -11708,15 +11142,15 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="89"/>
-      <c r="B67" s="176" t="s">
+      <c r="B67" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
-      <c r="E67" s="176"/>
-      <c r="F67" s="176"/>
-      <c r="G67" s="176"/>
-      <c r="H67" s="176"/>
+      <c r="C67" s="160"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="160"/>
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
       <c r="K67" s="78"/>
@@ -11891,11 +11325,36 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="A56:K56"/>
     <mergeCell ref="B53:C53"/>
@@ -11904,36 +11363,11 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11949,7 +11383,7 @@
   </sheetPr>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
@@ -12088,19 +11522,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="164"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="65" t="s">
@@ -12109,15 +11543,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -12130,15 +11564,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -12151,15 +11585,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="161"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -12174,15 +11608,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -12193,15 +11627,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -12215,15 +11649,15 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
       <c r="N7" s="36" t="s">
@@ -12231,19 +11665,19 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
       <c r="N8" s="36" t="s">
         <v>103</v>
       </c>
@@ -12710,19 +12144,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="170"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="166"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -12755,168 +12189,168 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="171" t="s">
+      <c r="C46" s="117"/>
+      <c r="D46" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="124"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="171" t="s">
+      <c r="I46" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="123"/>
-      <c r="K46" s="124"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="124"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="105"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="123"/>
-      <c r="K47" s="124"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="171" t="s">
+      <c r="B48" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="124"/>
-      <c r="D48" s="171" t="s">
+      <c r="C48" s="117"/>
+      <c r="D48" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="124"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="171" t="s">
+      <c r="I48" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="123"/>
-      <c r="K48" s="124"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="124"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="124"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="124"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="124"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="162"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="173"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="162"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="162"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="173"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="162"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="162"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="173"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="162"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="173"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="162"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="173"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="162"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="170"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="166"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -13236,6 +12670,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -13246,36 +12710,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13291,8 +12725,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -13430,19 +12864,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="164"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -13451,15 +12885,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -13472,15 +12906,15 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
@@ -13493,15 +12927,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="161"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -13516,15 +12950,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="C5" s="174" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -13535,15 +12969,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -13554,32 +12988,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -14037,19 +13471,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="170"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="166"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -14082,170 +13516,170 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="171" t="s">
+      <c r="C46" s="117"/>
+      <c r="D46" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="124"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="171" t="s">
+      <c r="I46" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="123"/>
-      <c r="K46" s="124"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="171" t="s">
+      <c r="B47" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="124"/>
-      <c r="D47" s="171" t="s">
+      <c r="C47" s="117"/>
+      <c r="D47" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="124"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="107"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="171" t="s">
+      <c r="I47" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="J47" s="123"/>
-      <c r="K47" s="124"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="124"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="171" t="s">
+      <c r="I48" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="123"/>
-      <c r="K48" s="124"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="124"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="124"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="124"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="124"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="162"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="173"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="162"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="162"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="173"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="162"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="162"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="173"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="162"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="173"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="162"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="173"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="162"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="170"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="166"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -14565,6 +13999,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -14575,36 +14039,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14620,8 +14054,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -14759,19 +14193,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="164"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -14780,15 +14214,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -14801,20 +14235,20 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="70">
-        <v>43714</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14822,15 +14256,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="161"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -14845,15 +14279,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="C5" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -14864,15 +14298,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -14883,32 +14317,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -15366,19 +14800,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="170"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="166"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -15411,170 +14845,170 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="171" t="s">
+      <c r="C46" s="117"/>
+      <c r="D46" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="124"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="108"/>
       <c r="G46" s="109"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="171" t="s">
+      <c r="I46" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="123"/>
-      <c r="K46" s="124"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="171" t="s">
+      <c r="B47" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="124"/>
-      <c r="D47" s="171" t="s">
+      <c r="C47" s="117"/>
+      <c r="D47" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="124"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="108"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="171" t="s">
+      <c r="I47" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="J47" s="123"/>
-      <c r="K47" s="124"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="124"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="108"/>
       <c r="G48" s="109"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="171" t="s">
+      <c r="I48" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="123"/>
-      <c r="K48" s="124"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="124"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="108"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="124"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="124"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="108"/>
       <c r="G50" s="109"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="124"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="162"/>
       <c r="F51" s="110"/>
       <c r="G51" s="110"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="173"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="162"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="162"/>
       <c r="F52" s="110"/>
       <c r="G52" s="110"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="173"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="162"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="162"/>
       <c r="F53" s="110"/>
       <c r="G53" s="110"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="173"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="162"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
       <c r="F54" s="110"/>
       <c r="G54" s="110"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="173"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="162"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
       <c r="F55" s="110"/>
       <c r="G55" s="110"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="173"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="162"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="170"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="166"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -15894,6 +15328,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -15904,36 +15368,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15950,7 +15384,7 @@
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView zoomScale="43" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -16088,19 +15522,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="164"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -16109,15 +15543,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -16130,20 +15564,20 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="70">
-        <v>43714</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -16151,15 +15585,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="161"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -16174,15 +15608,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="C5" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -16193,15 +15627,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -16212,32 +15646,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -16695,19 +16129,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="170"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="166"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -16740,162 +16174,162 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="171" t="s">
+      <c r="C46" s="117"/>
+      <c r="D46" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="124"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="105"/>
       <c r="G46" s="88"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="171" t="s">
+      <c r="I46" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="123"/>
-      <c r="K46" s="124"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="124"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="105"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="123"/>
-      <c r="K47" s="124"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="124"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="105"/>
       <c r="G48" s="88"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="124"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="124"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="105"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="124"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="124"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="105"/>
       <c r="G50" s="88"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="124"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="162"/>
       <c r="F51" s="106"/>
       <c r="G51" s="106"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="173"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="162"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="162"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="173"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="162"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="162"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="173"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="162"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
       <c r="F54" s="106"/>
       <c r="G54" s="106"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="173"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="162"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
       <c r="F55" s="106"/>
       <c r="G55" s="106"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="173"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="162"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="170"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="166"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -17215,6 +16649,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -17225,36 +16689,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17270,8 +16704,8 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScale="43" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.25"/>
@@ -17409,19 +16843,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="164"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="65" t="s">
@@ -17430,15 +16864,15 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
@@ -17451,20 +16885,20 @@
       <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="70">
-        <v>43714</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -17472,15 +16906,15 @@
       <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="161"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="67" t="s">
         <v>8</v>
       </c>
@@ -17495,15 +16929,15 @@
       <c r="B5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="C5" s="174" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
       <c r="J5" s="67" t="s">
         <v>12</v>
       </c>
@@ -17514,15 +16948,15 @@
       <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
       <c r="J6" s="67" t="s">
         <v>14</v>
       </c>
@@ -17533,32 +16967,32 @@
       <c r="B7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="67"/>
       <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
@@ -18016,19 +17450,19 @@
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="170"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="166"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="82" t="s">
@@ -18061,162 +17495,156 @@
       <c r="A46" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="171" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="124"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="108"/>
       <c r="G46" s="109"/>
       <c r="H46" s="86"/>
-      <c r="I46" s="171" t="s">
-        <v>83</v>
-      </c>
-      <c r="J46" s="123"/>
-      <c r="K46" s="124"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="124"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="108"/>
       <c r="G47" s="93"/>
       <c r="H47" s="86"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="123"/>
-      <c r="K47" s="124"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="124"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="108"/>
       <c r="G48" s="109"/>
       <c r="H48" s="86"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="124"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="124"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="108"/>
       <c r="G49" s="93"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="124"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="124"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="108"/>
       <c r="G50" s="109"/>
       <c r="H50" s="86"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="124"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="86"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="162"/>
       <c r="F51" s="110"/>
       <c r="G51" s="110"/>
       <c r="H51" s="87"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="173"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="162"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="86"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="162"/>
       <c r="F52" s="110"/>
       <c r="G52" s="110"/>
       <c r="H52" s="87"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="173"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="162"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="86"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="162"/>
       <c r="F53" s="110"/>
       <c r="G53" s="110"/>
       <c r="H53" s="87"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="173"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="162"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="86"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
       <c r="F54" s="110"/>
       <c r="G54" s="110"/>
       <c r="H54" s="87"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="173"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="162"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="86"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
       <c r="F55" s="110"/>
       <c r="G55" s="110"/>
       <c r="H55" s="87"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="173"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="162"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="170"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="166"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="89"/>
@@ -18536,6 +17964,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:K55"/>
@@ -18546,36 +18004,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
